--- a/Filtered_By_Region/Region VI/Region VI_LMS.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_LMS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD40"/>
+  <dimension ref="A1:BE40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +719,11 @@
           <t>Provision of Solar Panel</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -776,10 +782,10 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>44864</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>45121</v>
       </c>
       <c r="Q2" t="inlineStr">
@@ -792,16 +798,16 @@
           <t>R6-D2-2020BEFF-13-NC</t>
         </is>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>44389</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>44396</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>44410</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>44424</v>
       </c>
       <c r="W2" t="inlineStr">
@@ -882,19 +888,11 @@
       <c r="AT2" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="n">
         <v>1</v>
       </c>
@@ -1074,19 +1072,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
         <v>0</v>
       </c>
@@ -1269,18 +1259,11 @@
       <c r="AU4" t="n">
         <v>1</v>
       </c>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>0</v>
       </c>
@@ -1347,7 +1330,7 @@
           <t>March 27, 2022</t>
         </is>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>44747</v>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1461,18 +1444,11 @@
       <c r="AU5" t="n">
         <v>1</v>
       </c>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
         <v>1</v>
       </c>
@@ -1534,10 +1510,10 @@
       <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="3" t="n">
         <v>44618</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="3" t="n">
         <v>45632</v>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1550,19 +1526,19 @@
           <t>LMS2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="3" t="n">
         <v>44410</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="3" t="n">
         <v>44425</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>44446</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>44468</v>
       </c>
       <c r="X6" t="inlineStr">
@@ -1645,13 +1621,6 @@
       <c r="AV6" t="n">
         <v>1</v>
       </c>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
         <v>1</v>
       </c>
@@ -1825,23 +1794,17 @@
       <c r="AT7" t="n">
         <v>2.24</v>
       </c>
-      <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="n">
         <v>0</v>
       </c>
       <c r="AW7" t="n">
         <v>1</v>
       </c>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
         <v>1</v>
       </c>
@@ -2015,23 +1978,17 @@
       <c r="AT8" t="n">
         <v>5.24</v>
       </c>
-      <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
         <v>1</v>
       </c>
@@ -2205,19 +2162,12 @@
       <c r="AT9" t="n">
         <v>1.25</v>
       </c>
-      <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>1</v>
       </c>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
         <v>1</v>
       </c>
@@ -2388,20 +2338,12 @@
       <c r="AS10" t="n">
         <v>0</v>
       </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="n">
         <v>0</v>
       </c>
       <c r="AW10" t="n">
         <v>1</v>
       </c>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>1</v>
       </c>
@@ -2572,20 +2514,12 @@
       <c r="AS11" t="n">
         <v>0.03000000000000003</v>
       </c>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="n">
         <v>0</v>
       </c>
       <c r="AW11" t="n">
         <v>1</v>
       </c>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="n">
         <v>1</v>
       </c>
@@ -2756,20 +2690,12 @@
       <c r="AS12" t="n">
         <v>0</v>
       </c>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="n">
         <v>0</v>
       </c>
       <c r="AW12" t="n">
         <v>1</v>
       </c>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="n">
         <v>1</v>
       </c>
@@ -2940,20 +2866,12 @@
       <c r="AS13" t="n">
         <v>0</v>
       </c>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="n">
         <v>0</v>
       </c>
       <c r="AW13" t="n">
         <v>1</v>
       </c>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
         <v>1</v>
       </c>
@@ -3127,21 +3045,14 @@
       <c r="AT14" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="n">
         <v>1</v>
       </c>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="n">
         <v>1</v>
       </c>
@@ -3315,21 +3226,14 @@
       <c r="AT15" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="n">
         <v>1</v>
       </c>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="n">
         <v>1</v>
       </c>
@@ -3503,21 +3407,14 @@
       <c r="AT16" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="n">
         <v>1</v>
       </c>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="n">
         <v>1</v>
       </c>
@@ -3579,10 +3476,10 @@
       <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="O17" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>45265</v>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3595,19 +3492,19 @@
           <t>2023-07-001</t>
         </is>
       </c>
-      <c r="S17" s="2" t="n">
+      <c r="S17" s="3" t="n">
         <v>45057</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="3" t="n">
         <v>45117</v>
       </c>
       <c r="X17" t="inlineStr">
@@ -3681,21 +3578,14 @@
       <c r="AT17" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="n">
         <v>1</v>
       </c>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="n">
         <v>1</v>
       </c>
@@ -3757,7 +3647,7 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="3" t="n">
         <v>45261</v>
       </c>
       <c r="P18" t="inlineStr">
@@ -3775,19 +3665,19 @@
           <t>2023-07-002</t>
         </is>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="3" t="n">
         <v>45057</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>45113</v>
       </c>
       <c r="X18" t="inlineStr">
@@ -3861,21 +3751,14 @@
       <c r="AT18" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="n">
         <v>1</v>
       </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="n">
         <v>1</v>
       </c>
@@ -3937,10 +3820,10 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>45481</v>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3953,19 +3836,19 @@
           <t>R6-D2-2022BEFF-37-NC</t>
         </is>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="3" t="n">
         <v>44890</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>44897</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>44916</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>44916</v>
       </c>
       <c r="X19" t="inlineStr">
@@ -4041,17 +3924,9 @@
       <c r="AT19" t="n">
         <v>9.24</v>
       </c>
-      <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="n">
         <v>1</v>
       </c>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="n">
         <v>1</v>
       </c>
@@ -4113,7 +3988,7 @@
       <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="O20" s="3" t="n">
         <v>45261</v>
       </c>
       <c r="P20" t="inlineStr">
@@ -4131,13 +4006,13 @@
           <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="3" t="n">
         <v>45096</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>45110</v>
       </c>
       <c r="V20" t="inlineStr">
@@ -4145,7 +4020,7 @@
           <t>Augut 17, 2023</t>
         </is>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>45167</v>
       </c>
       <c r="X20" t="inlineStr">
@@ -4221,7 +4096,6 @@
       <c r="AT20" t="n">
         <v>10.24</v>
       </c>
-      <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="n">
         <v>0</v>
       </c>
@@ -4237,9 +4111,6 @@
       <c r="AZ20" t="n">
         <v>15795342.76</v>
       </c>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="n">
         <v>1</v>
       </c>
@@ -4301,10 +4172,10 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21" s="2" t="n">
+      <c r="O21" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>45192</v>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4317,19 +4188,19 @@
           <t>No. 03-A-2022</t>
         </is>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="3" t="n">
         <v>44694</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>44706</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="3" t="n">
         <v>44830</v>
       </c>
       <c r="X21" t="inlineStr">
@@ -4403,21 +4274,14 @@
       <c r="AT21" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="n">
         <v>0</v>
       </c>
@@ -4479,10 +4343,10 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22" s="2" t="n">
+      <c r="O22" s="3" t="n">
         <v>45388</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>45511</v>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4505,7 +4369,7 @@
           <t>24/04/2023</t>
         </is>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>45143</v>
       </c>
       <c r="V22" t="inlineStr">
@@ -4513,7 +4377,7 @@
           <t>29/06/2023</t>
         </is>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="3" t="n">
         <v>44993</v>
       </c>
       <c r="X22" t="inlineStr">
@@ -4587,7 +4451,6 @@
       <c r="AT22" t="n">
         <v>10.24</v>
       </c>
-      <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="n">
         <v>0</v>
       </c>
@@ -4603,9 +4466,6 @@
       <c r="AZ22" t="n">
         <v>16950819.24</v>
       </c>
-      <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="n">
         <v>1</v>
       </c>
@@ -4667,10 +4527,10 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23" s="2" t="n">
+      <c r="O23" s="3" t="n">
         <v>45291</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>45476</v>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4683,19 +4543,19 @@
           <t>DepED-RO6-D1-LMS2023-019-2023</t>
         </is>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="3" t="n">
         <v>45042</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>45049</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>45061</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>45096</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>45104</v>
       </c>
       <c r="X23" t="inlineStr">
@@ -4780,9 +4640,6 @@
       <c r="AW23" t="n">
         <v>1</v>
       </c>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -4791,7 +4648,6 @@
       <c r="BB23" t="n">
         <v>1</v>
       </c>
-      <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="n">
         <v>1</v>
       </c>
@@ -4853,10 +4709,10 @@
       <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" s="2" t="n">
+      <c r="O24" s="3" t="n">
         <v>45413</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>45468</v>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4869,19 +4725,19 @@
           <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="3" t="n">
         <v>45089</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>45096</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>45187</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>45258</v>
       </c>
       <c r="X24" t="inlineStr">
@@ -4968,9 +4824,6 @@
       <c r="AW24" t="n">
         <v>1</v>
       </c>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -4979,7 +4832,6 @@
       <c r="BB24" t="n">
         <v>1</v>
       </c>
-      <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="n">
         <v>1</v>
       </c>
@@ -5041,10 +4893,10 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="O25" s="3" t="n">
         <v>45310</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>45366</v>
       </c>
       <c r="Q25" t="inlineStr">
@@ -5057,19 +4909,19 @@
           <t>No. 03-2023</t>
         </is>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>45044</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>45057</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>45083</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="3" t="n">
         <v>45093</v>
       </c>
       <c r="X25" t="inlineStr">
@@ -5156,9 +5008,6 @@
       <c r="AW25" t="n">
         <v>1</v>
       </c>
-      <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -5167,7 +5016,6 @@
       <c r="BB25" t="n">
         <v>1</v>
       </c>
-      <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="n">
         <v>0</v>
       </c>
@@ -5229,10 +5077,10 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26" s="2" t="n">
+      <c r="O26" s="3" t="n">
         <v>45381</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="3" t="n">
         <v>45511</v>
       </c>
       <c r="Q26" t="inlineStr">
@@ -5245,19 +5093,19 @@
           <t>BEFF2023-RVI-022-LMS-L1</t>
         </is>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="3" t="n">
         <v>45033</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="3" t="n">
         <v>45040</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="3" t="n">
         <v>45054</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>45106</v>
       </c>
-      <c r="W26" s="2" t="n">
+      <c r="W26" s="3" t="n">
         <v>45141</v>
       </c>
       <c r="X26" t="inlineStr">
@@ -5342,14 +5190,9 @@
       <c r="AW26" t="n">
         <v>1</v>
       </c>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
-      <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="n">
         <v>1</v>
       </c>
-      <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="n">
         <v>1</v>
       </c>
@@ -5411,10 +5254,10 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27" s="2" t="n">
+      <c r="O27" s="3" t="n">
         <v>45381</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>45512</v>
       </c>
       <c r="Q27" t="inlineStr">
@@ -5427,19 +5270,19 @@
           <t>BEFF2023-RVI-022-LMS-L2</t>
         </is>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="3" t="n">
         <v>45033</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>45040</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>45054</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>45106</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="W27" s="3" t="n">
         <v>45141</v>
       </c>
       <c r="X27" t="inlineStr">
@@ -5524,14 +5367,9 @@
       <c r="AW27" t="n">
         <v>1</v>
       </c>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
-      <c r="BA27" t="inlineStr"/>
       <c r="BB27" t="n">
         <v>1</v>
       </c>
-      <c r="BC27" t="inlineStr"/>
       <c r="BD27" t="n">
         <v>1</v>
       </c>
@@ -5595,10 +5433,10 @@
       <c r="N28" t="n">
         <v>1</v>
       </c>
-      <c r="O28" s="2" t="n">
+      <c r="O28" s="3" t="n">
         <v>45688</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="3" t="n">
         <v>45702</v>
       </c>
       <c r="Q28" t="inlineStr">
@@ -5611,19 +5449,19 @@
           <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
         </is>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="3" t="n">
         <v>45244</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>45310</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="W28" s="3" t="n">
         <v>45441</v>
       </c>
       <c r="X28" t="inlineStr">
@@ -5699,14 +5537,6 @@
       <c r="AT28" t="n">
         <v>2.25</v>
       </c>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
-      <c r="BA28" t="inlineStr"/>
-      <c r="BB28" t="inlineStr"/>
       <c r="BC28" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -5775,7 +5605,7 @@
       <c r="N29" t="n">
         <v>0.3</v>
       </c>
-      <c r="O29" s="2" t="n">
+      <c r="O29" s="3" t="n">
         <v>45919</v>
       </c>
       <c r="P29" t="inlineStr">
@@ -5793,19 +5623,19 @@
           <t>R6-D2-GAA2024-07-NC</t>
         </is>
       </c>
-      <c r="S29" s="2" t="n">
+      <c r="S29" s="3" t="n">
         <v>45317</v>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="3" t="n">
         <v>45324</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="3" t="n">
         <v>45338</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>45387</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="W29" s="3" t="n">
         <v>45492</v>
       </c>
       <c r="X29" t="inlineStr">
@@ -5878,15 +5708,6 @@
       <c r="AS29" t="n">
         <v>0.15</v>
       </c>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -5955,7 +5776,7 @@
       <c r="N30" t="n">
         <v>0.75</v>
       </c>
-      <c r="O30" s="2" t="n">
+      <c r="O30" s="3" t="n">
         <v>45723</v>
       </c>
       <c r="P30" t="inlineStr">
@@ -5969,19 +5790,19 @@
       <c r="R30" t="n">
         <v>0</v>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="S30" s="3" t="n">
         <v>45470</v>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>45478</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>45497</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>45510</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>45332</v>
       </c>
       <c r="X30" t="inlineStr">
@@ -6054,15 +5875,6 @@
       <c r="AS30" t="n">
         <v>0.4</v>
       </c>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr">
         <is>
           <t>4th</t>
@@ -6131,7 +5943,7 @@
       <c r="N31" t="n">
         <v>0.85</v>
       </c>
-      <c r="O31" s="2" t="n">
+      <c r="O31" s="3" t="n">
         <v>45827</v>
       </c>
       <c r="P31" t="inlineStr">
@@ -6149,19 +5961,19 @@
           <t>CB No. 2024 - 032</t>
         </is>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="S31" s="3" t="n">
         <v>45471</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>45483</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>45495</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>45519</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>45579</v>
       </c>
       <c r="X31" t="inlineStr">
@@ -6234,15 +6046,6 @@
       <c r="AS31" t="n">
         <v>0.4</v>
       </c>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
-      <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6311,7 +6114,7 @@
       <c r="N32" t="n">
         <v>0.95</v>
       </c>
-      <c r="O32" s="2" t="n">
+      <c r="O32" s="3" t="n">
         <v>45780</v>
       </c>
       <c r="P32" t="inlineStr">
@@ -6329,19 +6132,19 @@
           <t>CB No. 2024 - 033</t>
         </is>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="S32" s="3" t="n">
         <v>45471</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="3" t="n">
         <v>45483</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>45495</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="3" t="n">
         <v>45519</v>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="3" t="n">
         <v>45590</v>
       </c>
       <c r="X32" t="inlineStr">
@@ -6414,15 +6217,6 @@
       <c r="AS32" t="n">
         <v>0.45</v>
       </c>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr">
         <is>
           <t>5th</t>
@@ -6491,10 +6285,10 @@
       <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="O33" s="2" t="n">
+      <c r="O33" s="3" t="n">
         <v>45591</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>45653</v>
       </c>
       <c r="Q33" t="inlineStr">
@@ -6507,19 +6301,19 @@
           <t>No. 06-2024</t>
         </is>
       </c>
-      <c r="S33" s="2" t="n">
+      <c r="S33" s="3" t="n">
         <v>45215</v>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="T33" s="3" t="n">
         <v>45223</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="3" t="n">
         <v>45235</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="3" t="n">
         <v>45425</v>
       </c>
-      <c r="W33" s="2" t="n">
+      <c r="W33" s="3" t="n">
         <v>45436</v>
       </c>
       <c r="X33" t="inlineStr">
@@ -6595,14 +6389,6 @@
       <c r="AT33" t="n">
         <v>1.25</v>
       </c>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr">
         <is>
           <t>5th</t>
@@ -6671,7 +6457,7 @@
       <c r="N34" t="n">
         <v>0.75</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="O34" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="P34" t="inlineStr">
@@ -6689,19 +6475,19 @@
           <t>2024-10-0006</t>
         </is>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="S34" s="3" t="n">
         <v>45472</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="3" t="n">
         <v>45484</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="3" t="n">
         <v>45496</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="3" t="n">
         <v>45524</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="W34" s="3" t="n">
         <v>45573</v>
       </c>
       <c r="X34" t="inlineStr">
@@ -6774,15 +6560,6 @@
       <c r="AS34" t="n">
         <v>0.45</v>
       </c>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6851,7 +6628,7 @@
       <c r="N35" t="n">
         <v>0.5</v>
       </c>
-      <c r="O35" s="2" t="n">
+      <c r="O35" s="3" t="n">
         <v>45940</v>
       </c>
       <c r="P35" t="inlineStr">
@@ -6869,19 +6646,19 @@
           <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
         </is>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="S35" s="3" t="n">
         <v>45511</v>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="3" t="n">
         <v>45518</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>45534</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>45548</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="3" t="n">
         <v>45700</v>
       </c>
       <c r="X35" t="inlineStr">
@@ -6954,15 +6731,6 @@
       <c r="AS35" t="n">
         <v>0.3</v>
       </c>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr"/>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7031,7 +6799,7 @@
       <c r="N36" t="n">
         <v>0.4</v>
       </c>
-      <c r="O36" s="2" t="n">
+      <c r="O36" s="3" t="n">
         <v>45751</v>
       </c>
       <c r="P36" t="inlineStr">
@@ -7049,19 +6817,19 @@
           <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
         </is>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="S36" s="3" t="n">
         <v>45476</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="3" t="n">
         <v>45483</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
         <v>45495</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="3" t="n">
         <v>45649</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="W36" s="3" t="n">
         <v>45715</v>
       </c>
       <c r="X36" t="inlineStr">
@@ -7134,15 +6902,6 @@
       <c r="AS36" t="n">
         <v>0.15</v>
       </c>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7211,7 +6970,7 @@
       <c r="N37" t="n">
         <v>0.3</v>
       </c>
-      <c r="O37" s="2" t="n">
+      <c r="O37" s="3" t="n">
         <v>45751</v>
       </c>
       <c r="P37" t="inlineStr">
@@ -7229,19 +6988,19 @@
           <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
         </is>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="S37" s="3" t="n">
         <v>45476</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>45483</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>45495</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>45649</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="W37" s="3" t="n">
         <v>45715</v>
       </c>
       <c r="X37" t="inlineStr">
@@ -7314,15 +7073,6 @@
       <c r="AS37" t="n">
         <v>0.15</v>
       </c>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
-      <c r="AW37" t="inlineStr"/>
-      <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
-      <c r="AZ37" t="inlineStr"/>
-      <c r="BA37" t="inlineStr"/>
-      <c r="BB37" t="inlineStr"/>
       <c r="BC37" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7391,7 +7141,7 @@
       <c r="N38" t="n">
         <v>0.85</v>
       </c>
-      <c r="O38" s="2" t="n">
+      <c r="O38" s="3" t="n">
         <v>45719</v>
       </c>
       <c r="P38" t="inlineStr">
@@ -7409,19 +7159,19 @@
           <t>24-09-005</t>
         </is>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="S38" s="3" t="n">
         <v>45250</v>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="3" t="n">
         <v>45257</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>45499</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="W38" s="3" t="n">
         <v>45552</v>
       </c>
       <c r="X38" t="inlineStr">
@@ -7494,15 +7244,6 @@
       <c r="AS38" t="n">
         <v>0.15</v>
       </c>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
-      <c r="AV38" t="inlineStr"/>
-      <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
-      <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7571,7 +7312,7 @@
       <c r="N39" t="n">
         <v>0.85</v>
       </c>
-      <c r="O39" s="2" t="n">
+      <c r="O39" s="3" t="n">
         <v>45703</v>
       </c>
       <c r="P39" t="inlineStr">
@@ -7589,19 +7330,19 @@
           <t>24-09-003</t>
         </is>
       </c>
-      <c r="S39" s="2" t="n">
+      <c r="S39" s="3" t="n">
         <v>45250</v>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="T39" s="3" t="n">
         <v>45257</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="3" t="n">
         <v>45499</v>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="W39" s="3" t="n">
         <v>45539</v>
       </c>
       <c r="X39" t="inlineStr">
@@ -7674,15 +7415,6 @@
       <c r="AS39" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="inlineStr"/>
-      <c r="AV39" t="inlineStr"/>
-      <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="inlineStr"/>
-      <c r="AZ39" t="inlineStr"/>
-      <c r="BA39" t="inlineStr"/>
-      <c r="BB39" t="inlineStr"/>
       <c r="BC39" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7751,7 +7483,7 @@
       <c r="N40" t="n">
         <v>0.85</v>
       </c>
-      <c r="O40" s="2" t="n">
+      <c r="O40" s="3" t="n">
         <v>45719</v>
       </c>
       <c r="P40" t="inlineStr">
@@ -7769,19 +7501,19 @@
           <t>24-09-004</t>
         </is>
       </c>
-      <c r="S40" s="2" t="n">
+      <c r="S40" s="3" t="n">
         <v>45250</v>
       </c>
-      <c r="T40" s="2" t="n">
+      <c r="T40" s="3" t="n">
         <v>45257</v>
       </c>
-      <c r="U40" s="2" t="n">
+      <c r="U40" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="V40" s="2" t="n">
+      <c r="V40" s="3" t="n">
         <v>45499</v>
       </c>
-      <c r="W40" s="2" t="n">
+      <c r="W40" s="3" t="n">
         <v>45555</v>
       </c>
       <c r="X40" t="inlineStr">
@@ -7854,15 +7586,6 @@
       <c r="AS40" t="n">
         <v>0.4</v>
       </c>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
-      <c r="AV40" t="inlineStr"/>
-      <c r="AW40" t="inlineStr"/>
-      <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
-      <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
-      <c r="BB40" t="inlineStr"/>
       <c r="BC40" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7870,6 +7593,79 @@
       </c>
       <c r="BD40" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="BE2:BE40" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Filtered_By_Region/Region VI/Region VI_LMS.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_LMS.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,4201 +447,4230 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="31" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="251" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="47" customWidth="1" min="17" max="17"/>
+    <col width="39" customWidth="1" min="18" max="18"/>
+    <col width="31" customWidth="1" min="19" max="19"/>
+    <col width="27" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="33" customWidth="1" min="22" max="22"/>
+    <col width="31" customWidth="1" min="23" max="23"/>
+    <col width="55" customWidth="1" min="24" max="24"/>
+    <col width="170" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>114985</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Caloy-ahan PS</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Bugasong</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="G2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>23766742.20496984</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>19613104.9</v>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="n">
+      <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6" t="n">
         <v>44864</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="6" t="n">
         <v>45121</v>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2020BEFF-13-NC</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2020BEFF-13-NC</t>
         </is>
       </c>
-      <c r="S2" s="5" t="n">
+      <c r="S2" s="6" t="n">
         <v>44389</v>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="6" t="n">
         <v>44396</v>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="6" t="n">
         <v>44410</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="6" t="n">
         <v>44424</v>
       </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction Enterprises</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>Nearly completion on finishing works, and delivery of school furnitures.</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="n"/>
+      <c r="Z2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Capiz</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>115627</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Jamul-awon ES</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>PANAY</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>20180339.2794</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>13027738.3</v>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>April 19, 2022</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>R6-DepED-Capiz-CY2020-Last Mile School-Lot 2</t>
         </is>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="R3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>August 23, 2021</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>September 1, 2021</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>September 14, 2021</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>October 11, 2021</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>October 21, 2021</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>ORANGEKONSTRUCT CIVIL ENGINEERING SERVICES</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>Schedule of pre-procurement 8/17/2021</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="n"/>
+      <c r="Z3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Capiz</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>310811</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>YATING NATIONAL HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>18733377.0103</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>11945444.38</v>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>May 2, 2022</t>
         </is>
       </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>R6-DepED-Capiz-CY2020-Last Mile School-Lot 1</t>
         </is>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="R4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>August 23, 2021</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>September 1, 2021</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>September 14, 2021</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>October 11, 2021</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>November 3, 2021</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>GREATMAN BUILDERS</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>Schedule of pre-procurement 8/17/2021</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="n"/>
+      <c r="Z4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>115914</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Panobolon ES</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Nueva Valencia</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>20808548.5734</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>20660439.7</v>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>March 27, 2022</t>
         </is>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="6" t="n">
         <v>44747</v>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>06-2021</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>06-2021</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>June 22, 2021</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>July 13, 2021</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>July 27, 2021</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>August 8, 2021</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>August 24, 2021</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>EZ Gold Construction and Supply</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Y5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>501244</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Barasalon Integrated School</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Janiuay I</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>20311610.08828702</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5" t="n">
         <v>17258671.73</v>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5" t="n">
+      <c r="N6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="n">
         <v>44618</v>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="P6" s="6" t="n">
         <v>45632</v>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>LMS2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>LMS2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
-      <c r="S6" s="5" t="n">
+      <c r="S6" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="T6" s="5" t="n">
+      <c r="T6" s="6" t="n">
         <v>44410</v>
       </c>
-      <c r="U6" s="5" t="n">
+      <c r="U6" s="6" t="n">
         <v>44425</v>
       </c>
-      <c r="V6" s="5" t="n">
+      <c r="V6" s="6" t="n">
         <v>44446</v>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="6" t="n">
         <v>44468</v>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>NOE'S Builders</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> -as of Feb2024- Liquidated damages were imposed;
  -For Termination; low paced workmasnhip; Based on the actual ocular</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="n"/>
+      <c r="Z6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>500544</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Mambuquiao Integrated School</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>BATAN</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>19683914.12</v>
       </c>
-      <c r="L7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="L7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="n"/>
+      <c r="Z7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>114804</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Bacyang PS</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>MADALAG</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="G8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>19567467.6</v>
       </c>
-      <c r="L8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="L8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="n"/>
+      <c r="Z8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>178514</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Omlot PS (realigned from Tigunhao PS)</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Laua-an</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>20850221.18</v>
       </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="L9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED. The school was re-aligned to Omlot PS</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="n"/>
+      <c r="Z9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Capiz</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>115617</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Bantigue ES</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>PANAY</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="G10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>20322685.02</v>
       </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="L10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="N10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="n"/>
+      <c r="Z10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>501248</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Adgao-Tagpuan-Ingay Integrated School</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>TUBUNGAN</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="G11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,  SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>17764390.36</v>
       </c>
-      <c r="L11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="L11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="5" t="n">
         <v>0.98</v>
       </c>
-      <c r="O11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED; Rectification of Punchlist</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="n"/>
+      <c r="Z11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>116180</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Caratagan PS</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>CALINOG</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>20557581.50383773</v>
       </c>
-      <c r="L12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="L12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="N12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="N12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED. NPA threats</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="n"/>
+      <c r="Z12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Kabankalan City</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>117891</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Sagumayon PS</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Kabankalan City</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>24548206.13</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="N13" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="n"/>
+      <c r="Z13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>302631</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Florentina C. Recto MHS - Caliling Ext</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>CAUAYAN</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>12162474.45</v>
       </c>
-      <c r="L14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="L14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="n"/>
+      <c r="Z14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>117008</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Patol Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>CAUAYAN</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>17312723.74</v>
       </c>
-      <c r="L15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="L15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="n"/>
+      <c r="Z15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>116982</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Talangnan ES</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>CAUAYAN</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>19254393.25</v>
       </c>
-      <c r="L16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="L16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED inaugurated (August)</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="n"/>
+      <c r="Z16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>114710</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>TABUNGYAN ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>BURUANGA</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>19158007.74450023</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="5" t="n">
         <v>18808160.79</v>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="n">
+      <c r="N17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>2023-07-001</t>
         </is>
       </c>
-      <c r="S17" s="5" t="n">
+      <c r="S17" s="6" t="n">
         <v>45057</v>
       </c>
-      <c r="T17" s="5" t="n">
+      <c r="T17" s="6" t="n">
         <v>45065</v>
       </c>
-      <c r="U17" s="5" t="n">
+      <c r="U17" s="6" t="n">
         <v>45079</v>
       </c>
-      <c r="V17" s="5" t="n">
+      <c r="V17" s="6" t="n">
         <v>45110</v>
       </c>
-      <c r="W17" s="5" t="n">
+      <c r="W17" s="6" t="n">
         <v>45117</v>
       </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4" t="n"/>
+      <c r="Y17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>501181</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Vivo Integrated School</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Tangalan</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM, PERIMETER FENCE  200 Meters </t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>19740374.52422607</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <v>19000879.05</v>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5" t="n">
+      <c r="N18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P18" s="4" t="inlineStr">
+      <c r="P18" s="5" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="Q18" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>2023-07-002</t>
         </is>
       </c>
-      <c r="S18" s="5" t="n">
+      <c r="S18" s="6" t="n">
         <v>45057</v>
       </c>
-      <c r="T18" s="5" t="n">
+      <c r="T18" s="6" t="n">
         <v>45065</v>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="6" t="n">
         <v>45079</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="6" t="n">
         <v>45110</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="6" t="n">
         <v>45113</v>
       </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="X18" s="5" t="inlineStr">
         <is>
           <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="4" t="n"/>
+      <c r="Y18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>114975</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Buenavista ES</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>BELISON</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="G19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, AND REPAIR/REHABILITATION OF 7 CLASSROOMS</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>21786950.50960388</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>16550995.27</v>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5" t="n">
+      <c r="N19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="6" t="n">
         <v>45481</v>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-37-NC</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-37-NC</t>
         </is>
       </c>
-      <c r="S19" s="5" t="n">
+      <c r="S19" s="6" t="n">
         <v>44890</v>
       </c>
-      <c r="T19" s="5" t="n">
+      <c r="T19" s="6" t="n">
         <v>44897</v>
       </c>
-      <c r="U19" s="5" t="n">
+      <c r="U19" s="6" t="n">
         <v>44904</v>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" s="6" t="n">
         <v>44916</v>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="6" t="n">
         <v>44916</v>
       </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction Enterprises</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>Completed as per approved plans and variation order</t>
         </is>
       </c>
-      <c r="Z19" s="4" t="n"/>
+      <c r="Z19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>115129</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Igcagay PS</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>LIBERTAD</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="G20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE(1) UNIT - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR AND REHABILITATION OF 2 CLASSROOMS</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>15795342.76</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <v>12901507.38</v>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5" t="n">
+      <c r="N20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P20" s="4" t="inlineStr">
+      <c r="P20" s="5" t="inlineStr">
         <is>
           <t>October 14, 2024</t>
         </is>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr">
         <is>
           <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
-      <c r="S20" s="5" t="n">
+      <c r="S20" s="6" t="n">
         <v>45096</v>
       </c>
-      <c r="T20" s="5" t="n">
+      <c r="T20" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="6" t="n">
         <v>45110</v>
       </c>
-      <c r="V20" s="4" t="inlineStr">
+      <c r="V20" s="5" t="inlineStr">
         <is>
           <t>Augut 17, 2023</t>
         </is>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="6" t="n">
         <v>45167</v>
       </c>
-      <c r="X20" s="4" t="inlineStr">
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t>D' X-man Builders Corporation</t>
         </is>
       </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>Completed as per approved plans and variation order</t>
         </is>
       </c>
-      <c r="Z20" s="4" t="n"/>
+      <c r="Z20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>115853</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Miagos Primary School</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="G21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,   AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>12611496.1788</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <v>12298193.75</v>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5" t="n">
+      <c r="N21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="P21" s="6" t="n">
         <v>45192</v>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>03-2022-lot 1</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>No. 03-A-2022</t>
         </is>
       </c>
-      <c r="S21" s="5" t="n">
+      <c r="S21" s="6" t="n">
         <v>44694</v>
       </c>
-      <c r="T21" s="5" t="n">
+      <c r="T21" s="6" t="n">
         <v>44706</v>
       </c>
-      <c r="U21" s="5" t="n">
+      <c r="U21" s="6" t="n">
         <v>44726</v>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="6" t="n">
         <v>44743</v>
       </c>
-      <c r="W21" s="5" t="n">
+      <c r="W21" s="6" t="n">
         <v>44830</v>
       </c>
-      <c r="X21" s="4" t="inlineStr">
+      <c r="X21" s="5" t="inlineStr">
         <is>
           <t>ARRIANNE MERCHANDISING AND CONSTRUCTION SERVICES, INC</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4" t="n"/>
+      <c r="Y21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>116117</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Tubod PS</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>BINGAWAN</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS 7x36 (MODIFIED STANDARD DPWH-DEPED) WITH TOILET EACH CLASSROOM, SOLAR PANEL @ WATER SUPPLY SYSTEM</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>16950819.24</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <v>13831624.51</v>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5" t="n">
+      <c r="N22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6" t="n">
         <v>45388</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="6" t="n">
         <v>45511</v>
       </c>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-LMS-L1</t>
         </is>
       </c>
-      <c r="R22" s="4" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-LMS-L1</t>
         </is>
       </c>
-      <c r="S22" s="4" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>17/04/2023</t>
         </is>
       </c>
-      <c r="T22" s="4" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>24/04/2023</t>
         </is>
       </c>
-      <c r="U22" s="5" t="n">
+      <c r="U22" s="6" t="n">
         <v>45143</v>
       </c>
-      <c r="V22" s="4" t="inlineStr">
+      <c r="V22" s="5" t="inlineStr">
         <is>
           <t>29/06/2023</t>
         </is>
       </c>
-      <c r="W22" s="5" t="n">
+      <c r="W22" s="6" t="n">
         <v>44993</v>
       </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>CDJ Builders Corporation</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4" t="n"/>
+      <c r="Y22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>114931</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Lanipga Napatag Primary School</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>TANGALAN</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>19969508.48</v>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <v>16152092.89</v>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="5" t="n">
+      <c r="N23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6" t="n">
         <v>45291</v>
       </c>
-      <c r="P23" s="5" t="n">
+      <c r="P23" s="6" t="n">
         <v>45476</v>
       </c>
-      <c r="Q23" s="4" t="inlineStr">
+      <c r="Q23" s="5" t="inlineStr">
         <is>
           <t>DepED-RO6-D1-LMS2023-019-2023</t>
         </is>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>DepED-RO6-D1-LMS2023-019-2023</t>
         </is>
       </c>
-      <c r="S23" s="5" t="n">
+      <c r="S23" s="6" t="n">
         <v>45042</v>
       </c>
-      <c r="T23" s="5" t="n">
+      <c r="T23" s="6" t="n">
         <v>45049</v>
       </c>
-      <c r="U23" s="5" t="n">
+      <c r="U23" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="V23" s="5" t="n">
+      <c r="V23" s="6" t="n">
         <v>45096</v>
       </c>
-      <c r="W23" s="5" t="n">
+      <c r="W23" s="6" t="n">
         <v>45104</v>
       </c>
-      <c r="X23" s="4" t="inlineStr">
+      <c r="X23" s="5" t="inlineStr">
         <is>
           <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="4" t="n"/>
+      <c r="Y23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>115139</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Tinindugan Primary School</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>LIBERTAD</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="G24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>17170000</v>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="5" t="n">
         <v>12901507.38</v>
       </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="5" t="n">
+      <c r="N24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6" t="n">
         <v>45413</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="P24" s="6" t="n">
         <v>45468</v>
       </c>
-      <c r="Q24" s="4" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr">
         <is>
           <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
-      <c r="R24" s="4" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
-      <c r="S24" s="5" t="n">
+      <c r="S24" s="6" t="n">
         <v>45089</v>
       </c>
-      <c r="T24" s="5" t="n">
+      <c r="T24" s="6" t="n">
         <v>45096</v>
       </c>
-      <c r="U24" s="5" t="n">
+      <c r="U24" s="6" t="n">
         <v>45110</v>
       </c>
-      <c r="V24" s="5" t="n">
+      <c r="V24" s="6" t="n">
         <v>45187</v>
       </c>
-      <c r="W24" s="5" t="n">
+      <c r="W24" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="X24" s="4" t="inlineStr">
+      <c r="X24" s="5" t="inlineStr">
         <is>
           <t>MJSb Builders and Supply</t>
         </is>
       </c>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>Completed as per POW and VO</t>
         </is>
       </c>
-      <c r="Z24" s="4" t="n"/>
+      <c r="Z24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>115859</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Tangaw Primary School</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="G25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) ROOFING, STEEL TRUSSES CONCRETE WORKS, MASONRY WORKS, ELECTRICAL WORKS, AND PLUMBINGWITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,   AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>17170000</v>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="5" t="n">
         <v>12209995.28</v>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5" t="n">
+      <c r="N25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6" t="n">
         <v>45310</v>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="P25" s="6" t="n">
         <v>45366</v>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
+      <c r="Q25" s="5" t="inlineStr">
         <is>
           <t>No. 03-2023</t>
         </is>
       </c>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>No. 03-2023</t>
         </is>
       </c>
-      <c r="S25" s="5" t="n">
+      <c r="S25" s="6" t="n">
         <v>45028</v>
       </c>
-      <c r="T25" s="5" t="n">
+      <c r="T25" s="6" t="n">
         <v>45044</v>
       </c>
-      <c r="U25" s="5" t="n">
+      <c r="U25" s="6" t="n">
         <v>45057</v>
       </c>
-      <c r="V25" s="5" t="n">
+      <c r="V25" s="6" t="n">
         <v>45083</v>
       </c>
-      <c r="W25" s="5" t="n">
+      <c r="W25" s="6" t="n">
         <v>45093</v>
       </c>
-      <c r="X25" s="4" t="inlineStr">
+      <c r="X25" s="5" t="inlineStr">
         <is>
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="Y25" s="4" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>Completed with approved VO in the amount of  956,217.09</t>
         </is>
       </c>
-      <c r="Z25" s="4" t="n"/>
+      <c r="Z25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>116107</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Cairohan PS</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>BINGAWAN</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <v>18854193.63</v>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="5" t="n">
         <v>12144077.99</v>
       </c>
-      <c r="M26" s="4" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5" t="n">
+      <c r="N26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6" t="n">
         <v>45381</v>
       </c>
-      <c r="P26" s="5" t="n">
+      <c r="P26" s="6" t="n">
         <v>45511</v>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>BEFF2023-RVI-022-LMS-L1</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>BEFF2023-RVI-022-LMS-L1</t>
         </is>
       </c>
-      <c r="S26" s="5" t="n">
+      <c r="S26" s="6" t="n">
         <v>45033</v>
       </c>
-      <c r="T26" s="5" t="n">
+      <c r="T26" s="6" t="n">
         <v>45040</v>
       </c>
-      <c r="U26" s="5" t="n">
+      <c r="U26" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V26" s="5" t="n">
+      <c r="V26" s="6" t="n">
         <v>45106</v>
       </c>
-      <c r="W26" s="5" t="n">
+      <c r="W26" s="6" t="n">
         <v>45141</v>
       </c>
-      <c r="X26" s="4" t="inlineStr">
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t>CDJ Builders Corporation</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="4" t="n"/>
+      <c r="Y26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>116099</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Malico PS</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>BATAD</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>ONE (1) STOREY-FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>23471443.86</v>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="5" t="n">
         <v>15174823.71</v>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="5" t="n">
+      <c r="N27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6" t="n">
         <v>45381</v>
       </c>
-      <c r="P27" s="5" t="n">
+      <c r="P27" s="6" t="n">
         <v>45512</v>
       </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="Q27" s="5" t="inlineStr">
         <is>
           <t>BEFF2023-RVI-022-LMS-L2</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>BEFF2023-RVI-022-LMS-L2</t>
         </is>
       </c>
-      <c r="S27" s="5" t="n">
+      <c r="S27" s="6" t="n">
         <v>45033</v>
       </c>
-      <c r="T27" s="5" t="n">
+      <c r="T27" s="6" t="n">
         <v>45040</v>
       </c>
-      <c r="U27" s="5" t="n">
+      <c r="U27" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V27" s="5" t="n">
+      <c r="V27" s="6" t="n">
         <v>45106</v>
       </c>
-      <c r="W27" s="5" t="n">
+      <c r="W27" s="6" t="n">
         <v>45141</v>
       </c>
-      <c r="X27" s="4" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>CDJ Builders Corporation</t>
         </is>
       </c>
-      <c r="Y27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="4" t="n"/>
+      <c r="Y27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>114860</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Cogon Elementary School</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>MALINAO</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="5" t="n">
         <v>21223289.1</v>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="5" t="n">
         <v>20460400.84</v>
       </c>
-      <c r="M28" s="4" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="5" t="n">
+      <c r="N28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6" t="n">
         <v>45688</v>
       </c>
-      <c r="P28" s="5" t="n">
+      <c r="P28" s="6" t="n">
         <v>45702</v>
       </c>
-      <c r="Q28" s="4" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr">
         <is>
           <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
         </is>
       </c>
-      <c r="S28" s="5" t="n">
+      <c r="S28" s="6" t="n">
         <v>45244</v>
       </c>
-      <c r="T28" s="5" t="n">
+      <c r="T28" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="U28" s="5" t="n">
+      <c r="U28" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="V28" s="5" t="n">
+      <c r="V28" s="6" t="n">
         <v>45310</v>
       </c>
-      <c r="W28" s="5" t="n">
+      <c r="W28" s="6" t="n">
         <v>45441</v>
       </c>
-      <c r="X28" s="4" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>GMO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y28" s="4" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z28" s="4" t="n"/>
+      <c r="Z28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>115268</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Panpanan I ES</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>SAN REMIGIO</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE(1) UNIT -  ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>17377521.03</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="5" t="n">
         <v>12162100.86</v>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N29" s="4" t="n">
+      <c r="N29" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O29" s="5" t="n">
+      <c r="O29" s="6" t="n">
         <v>45919</v>
       </c>
-      <c r="P29" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="P29" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q29" s="5" t="inlineStr">
         <is>
           <t>R6-D2-GAA2024-07-NC</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>R6-D2-GAA2024-07-NC</t>
         </is>
       </c>
-      <c r="S29" s="5" t="n">
+      <c r="S29" s="6" t="n">
         <v>45317</v>
       </c>
-      <c r="T29" s="5" t="n">
+      <c r="T29" s="6" t="n">
         <v>45324</v>
       </c>
-      <c r="U29" s="5" t="n">
+      <c r="U29" s="6" t="n">
         <v>45338</v>
       </c>
-      <c r="V29" s="5" t="n">
+      <c r="V29" s="6" t="n">
         <v>45387</v>
       </c>
-      <c r="W29" s="5" t="n">
+      <c r="W29" s="6" t="n">
         <v>45492</v>
       </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>MDG Const. &amp; Supply</t>
         </is>
       </c>
-      <c r="Y29" s="4" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>Already issued ressumption order last February 24, 2025</t>
         </is>
       </c>
-      <c r="Z29" s="4" t="n"/>
+      <c r="Z29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Cadiz City</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>117533</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Hiyang-Hiyang ES</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>CADIZ CITY</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY 5CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM with hauling cost</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>16383838.38</v>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="5" t="n">
         <v>15997903.42</v>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N30" s="4" t="n">
+      <c r="N30" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="O30" s="5" t="n">
+      <c r="O30" s="6" t="n">
         <v>45723</v>
       </c>
-      <c r="P30" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="5" t="n">
+      <c r="P30" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="6" t="n">
         <v>45470</v>
       </c>
-      <c r="T30" s="5" t="n">
+      <c r="T30" s="6" t="n">
         <v>45478</v>
       </c>
-      <c r="U30" s="5" t="n">
+      <c r="U30" s="6" t="n">
         <v>45497</v>
       </c>
-      <c r="V30" s="5" t="n">
+      <c r="V30" s="6" t="n">
         <v>45510</v>
       </c>
-      <c r="W30" s="5" t="n">
+      <c r="W30" s="6" t="n">
         <v>45332</v>
       </c>
-      <c r="X30" s="4" t="inlineStr">
+      <c r="X30" s="5" t="inlineStr">
         <is>
           <t>Keanne construction services</t>
         </is>
       </c>
-      <c r="Y30" s="4" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>With approved 150CD time extension due to unpassable road (landslide/manual hauling/unpassable road) Project ID and Contract ID to be confirmed from the BAC Secretariat</t>
         </is>
       </c>
-      <c r="Z30" s="4" t="n"/>
+      <c r="Z30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Capiz</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>500796</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Duluan Integrated School</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>MA-AYON</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>24242424.24</v>
       </c>
-      <c r="L31" s="4" t="n">
+      <c r="L31" s="5" t="n">
         <v>14878415.3</v>
       </c>
-      <c r="M31" s="4" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N31" s="4" t="n">
+      <c r="N31" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="O31" s="5" t="n">
+      <c r="O31" s="6" t="n">
         <v>45827</v>
       </c>
-      <c r="P31" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q31" s="4" t="inlineStr">
+      <c r="P31" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q31" s="5" t="inlineStr">
         <is>
           <t>R6-DepEd-Capiz-CY 2024-BEFF-DuluanIS-Lot1</t>
         </is>
       </c>
-      <c r="R31" s="4" t="inlineStr">
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>CB No. 2024 - 032</t>
         </is>
       </c>
-      <c r="S31" s="5" t="n">
+      <c r="S31" s="6" t="n">
         <v>45471</v>
       </c>
-      <c r="T31" s="5" t="n">
+      <c r="T31" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="U31" s="5" t="n">
+      <c r="U31" s="6" t="n">
         <v>45495</v>
       </c>
-      <c r="V31" s="5" t="n">
+      <c r="V31" s="6" t="n">
         <v>45519</v>
       </c>
-      <c r="W31" s="5" t="n">
+      <c r="W31" s="6" t="n">
         <v>45579</v>
       </c>
-      <c r="X31" s="4" t="inlineStr">
+      <c r="X31" s="5" t="inlineStr">
         <is>
           <t>AMD ENGINEERING AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="Y31" s="4" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>REQUESTED FOR 60 CD TIME EXTENSION. APPROVED LAST APRIL 2, 2025</t>
         </is>
       </c>
-      <c r="Z31" s="4" t="n"/>
+      <c r="Z31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Capiz</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>501439</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Sinamongan Integrated School</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="5" t="n">
         <v>21919191.92</v>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L32" s="5" t="n">
         <v>13454000</v>
       </c>
-      <c r="M32" s="4" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N32" s="4" t="n">
+      <c r="N32" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O32" s="5" t="n">
+      <c r="O32" s="6" t="n">
         <v>45780</v>
       </c>
-      <c r="P32" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q32" s="4" t="inlineStr">
+      <c r="P32" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q32" s="5" t="inlineStr">
         <is>
           <t>R6-DepEd-Capiz-CY 2024-BEFF-SinamonganIS-Lot2</t>
         </is>
       </c>
-      <c r="R32" s="4" t="inlineStr">
+      <c r="R32" s="5" t="inlineStr">
         <is>
           <t>CB No. 2024 - 033</t>
         </is>
       </c>
-      <c r="S32" s="5" t="n">
+      <c r="S32" s="6" t="n">
         <v>45471</v>
       </c>
-      <c r="T32" s="5" t="n">
+      <c r="T32" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="U32" s="5" t="n">
+      <c r="U32" s="6" t="n">
         <v>45495</v>
       </c>
-      <c r="V32" s="5" t="n">
+      <c r="V32" s="6" t="n">
         <v>45519</v>
       </c>
-      <c r="W32" s="5" t="n">
+      <c r="W32" s="6" t="n">
         <v>45590</v>
       </c>
-      <c r="X32" s="4" t="inlineStr">
+      <c r="X32" s="5" t="inlineStr">
         <is>
           <t>TUNGALA CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Y32" s="4" t="inlineStr">
+      <c r="Y32" s="5" t="inlineStr">
         <is>
           <t>SUBSTANTIALLY COMPLETED</t>
         </is>
       </c>
-      <c r="Z32" s="4" t="n"/>
+      <c r="Z32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>115903</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>Paaralan ng Buhay ng Taras</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>NUEVA VALENCIA</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>17188760.85</v>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L33" s="5" t="n">
         <v>16914477.63</v>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="5" t="n">
+      <c r="N33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="6" t="n">
         <v>45591</v>
       </c>
-      <c r="P33" s="5" t="n">
+      <c r="P33" s="6" t="n">
         <v>45653</v>
       </c>
-      <c r="Q33" s="4" t="inlineStr">
+      <c r="Q33" s="5" t="inlineStr">
         <is>
           <t>No. 06-2024</t>
         </is>
       </c>
-      <c r="R33" s="4" t="inlineStr">
+      <c r="R33" s="5" t="inlineStr">
         <is>
           <t>No. 06-2024</t>
         </is>
       </c>
-      <c r="S33" s="5" t="n">
+      <c r="S33" s="6" t="n">
         <v>45215</v>
       </c>
-      <c r="T33" s="5" t="n">
+      <c r="T33" s="6" t="n">
         <v>45223</v>
       </c>
-      <c r="U33" s="5" t="n">
+      <c r="U33" s="6" t="n">
         <v>45235</v>
       </c>
-      <c r="V33" s="5" t="n">
+      <c r="V33" s="6" t="n">
         <v>45425</v>
       </c>
-      <c r="W33" s="5" t="n">
+      <c r="W33" s="6" t="n">
         <v>45436</v>
       </c>
-      <c r="X33" s="4" t="inlineStr">
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="Y33" s="4" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>With approved time extension due to unworkable weather conditions &amp; change/increase of elevation</t>
         </is>
       </c>
-      <c r="Z33" s="4" t="n"/>
+      <c r="Z33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Himamaylan City</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>117066</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Balatogan Elementary School</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>CITY OF HIMAMAYLAN</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">5th </t>
         </is>
       </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="n">
+      <c r="H34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="5" t="n">
         <v>16860289.87</v>
       </c>
-      <c r="M34" s="4" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N34" s="4" t="n">
+      <c r="N34" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="O34" s="5" t="n">
+      <c r="O34" s="6" t="n">
         <v>45820</v>
       </c>
-      <c r="P34" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q34" s="4" t="inlineStr">
+      <c r="P34" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q34" s="5" t="inlineStr">
         <is>
           <t>2024-10-0006</t>
         </is>
       </c>
-      <c r="R34" s="4" t="inlineStr">
+      <c r="R34" s="5" t="inlineStr">
         <is>
           <t>2024-10-0006</t>
         </is>
       </c>
-      <c r="S34" s="5" t="n">
+      <c r="S34" s="6" t="n">
         <v>45472</v>
       </c>
-      <c r="T34" s="5" t="n">
+      <c r="T34" s="6" t="n">
         <v>45484</v>
       </c>
-      <c r="U34" s="5" t="n">
+      <c r="U34" s="6" t="n">
         <v>45496</v>
       </c>
-      <c r="V34" s="5" t="n">
+      <c r="V34" s="6" t="n">
         <v>45524</v>
       </c>
-      <c r="W34" s="5" t="n">
+      <c r="W34" s="6" t="n">
         <v>45573</v>
       </c>
-      <c r="X34" s="4" t="inlineStr">
+      <c r="X34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JCORD Construction </t>
         </is>
       </c>
-      <c r="Y34" s="4" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr">
         <is>
           <t>On going</t>
         </is>
       </c>
-      <c r="Z34" s="4" t="n"/>
+      <c r="Z34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>116833</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Lubog Primary School</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>TIGBAUAN</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4" t="n">
+      <c r="H35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <v>19802964.97</v>
       </c>
-      <c r="L35" s="4" t="n">
+      <c r="L35" s="5" t="n">
         <v>12634605.87</v>
       </c>
-      <c r="M35" s="4" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N35" s="4" t="n">
+      <c r="N35" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="O35" s="5" t="n">
+      <c r="O35" s="6" t="n">
         <v>45940</v>
       </c>
-      <c r="P35" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q35" s="4" t="inlineStr">
+      <c r="P35" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q35" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
         </is>
       </c>
-      <c r="R35" s="4" t="inlineStr">
+      <c r="R35" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
         </is>
       </c>
-      <c r="S35" s="5" t="n">
+      <c r="S35" s="6" t="n">
         <v>45511</v>
       </c>
-      <c r="T35" s="5" t="n">
+      <c r="T35" s="6" t="n">
         <v>45518</v>
       </c>
-      <c r="U35" s="5" t="n">
+      <c r="U35" s="6" t="n">
         <v>45534</v>
       </c>
-      <c r="V35" s="5" t="n">
+      <c r="V35" s="6" t="n">
         <v>45548</v>
       </c>
-      <c r="W35" s="5" t="n">
+      <c r="W35" s="6" t="n">
         <v>45700</v>
       </c>
-      <c r="X35" s="4" t="inlineStr">
+      <c r="X35" s="5" t="inlineStr">
         <is>
           <t>EC Builders</t>
         </is>
       </c>
-      <c r="Y35" s="4" t="inlineStr">
+      <c r="Y35" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="Z35" s="4" t="n"/>
+      <c r="Z35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>115973</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>Aglay-ao Primary School</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>ANILAO</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">4th </t>
         </is>
       </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="n">
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="5" t="n">
         <v>19802964.97</v>
       </c>
-      <c r="L36" s="4" t="n">
+      <c r="L36" s="5" t="n">
         <v>14058943.18</v>
       </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N36" s="4" t="n">
+      <c r="N36" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="O36" s="5" t="n">
+      <c r="O36" s="6" t="n">
         <v>45751</v>
       </c>
-      <c r="P36" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q36" s="4" t="inlineStr">
+      <c r="P36" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q36" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
         </is>
       </c>
-      <c r="R36" s="4" t="inlineStr">
+      <c r="R36" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
         </is>
       </c>
-      <c r="S36" s="5" t="n">
+      <c r="S36" s="6" t="n">
         <v>45476</v>
       </c>
-      <c r="T36" s="5" t="n">
+      <c r="T36" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="U36" s="5" t="n">
+      <c r="U36" s="6" t="n">
         <v>45495</v>
       </c>
-      <c r="V36" s="5" t="n">
+      <c r="V36" s="6" t="n">
         <v>45649</v>
       </c>
-      <c r="W36" s="5" t="n">
+      <c r="W36" s="6" t="n">
         <v>45715</v>
       </c>
-      <c r="X36" s="4" t="inlineStr">
+      <c r="X36" s="5" t="inlineStr">
         <is>
           <t>CDJ Builders Corporation</t>
         </is>
       </c>
-      <c r="Y36" s="4" t="inlineStr">
+      <c r="Y36" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="Z36" s="4" t="n"/>
+      <c r="Z36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="5" t="n">
         <v>116064</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>California PS</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>BAROTAC VIEJO</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">5th </t>
         </is>
       </c>
-      <c r="H37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4" t="n">
+      <c r="H37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="5" t="n">
         <v>19802964.97</v>
       </c>
-      <c r="L37" s="4" t="n">
+      <c r="L37" s="5" t="n">
         <v>13610045.75</v>
       </c>
-      <c r="M37" s="4" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N37" s="4" t="n">
+      <c r="N37" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O37" s="5" t="n">
+      <c r="O37" s="6" t="n">
         <v>45751</v>
       </c>
-      <c r="P37" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q37" s="4" t="inlineStr">
+      <c r="P37" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q37" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
         </is>
       </c>
-      <c r="R37" s="4" t="inlineStr">
+      <c r="R37" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
         </is>
       </c>
-      <c r="S37" s="5" t="n">
+      <c r="S37" s="6" t="n">
         <v>45476</v>
       </c>
-      <c r="T37" s="5" t="n">
+      <c r="T37" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="U37" s="5" t="n">
+      <c r="U37" s="6" t="n">
         <v>45495</v>
       </c>
-      <c r="V37" s="5" t="n">
+      <c r="V37" s="6" t="n">
         <v>45649</v>
       </c>
-      <c r="W37" s="5" t="n">
+      <c r="W37" s="6" t="n">
         <v>45715</v>
       </c>
-      <c r="X37" s="4" t="inlineStr">
+      <c r="X37" s="5" t="inlineStr">
         <is>
           <t>CDJ Builders Corporation</t>
         </is>
       </c>
-      <c r="Y37" s="4" t="inlineStr">
+      <c r="Y37" s="5" t="inlineStr">
         <is>
           <t>with NTP</t>
         </is>
       </c>
-      <c r="Z37" s="4" t="n"/>
+      <c r="Z37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="5" t="n">
         <v>117026</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>Gahit ES</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>ENRIQUE B. MAGALONA (SARAVIA)</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4" t="n">
+      <c r="H38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY3CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="5" t="n">
         <v>11351550.98</v>
       </c>
-      <c r="L38" s="4" t="n">
+      <c r="L38" s="5" t="n">
         <v>11139555.27</v>
       </c>
-      <c r="M38" s="4" t="inlineStr">
+      <c r="M38" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N38" s="4" t="n">
+      <c r="N38" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="O38" s="5" t="n">
+      <c r="O38" s="6" t="n">
         <v>45719</v>
       </c>
-      <c r="P38" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q38" s="4" t="inlineStr">
+      <c r="P38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q38" s="5" t="inlineStr">
         <is>
           <t>23-11-29</t>
         </is>
       </c>
-      <c r="R38" s="4" t="inlineStr">
+      <c r="R38" s="5" t="inlineStr">
         <is>
           <t>24-09-005</t>
         </is>
       </c>
-      <c r="S38" s="5" t="n">
+      <c r="S38" s="6" t="n">
         <v>45250</v>
       </c>
-      <c r="T38" s="5" t="n">
+      <c r="T38" s="6" t="n">
         <v>45257</v>
       </c>
-      <c r="U38" s="5" t="n">
+      <c r="U38" s="6" t="n">
         <v>45271</v>
       </c>
-      <c r="V38" s="5" t="n">
+      <c r="V38" s="6" t="n">
         <v>45499</v>
       </c>
-      <c r="W38" s="5" t="n">
+      <c r="W38" s="6" t="n">
         <v>45552</v>
       </c>
-      <c r="X38" s="4" t="inlineStr">
+      <c r="X38" s="5" t="inlineStr">
         <is>
           <t>KEANNE CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Y38" s="4" t="inlineStr">
+      <c r="Y38" s="5" t="inlineStr">
         <is>
           <t>on-going</t>
         </is>
       </c>
-      <c r="Z38" s="4" t="n"/>
+      <c r="Z38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="5" t="n">
         <v>117262</v>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>E. Basa ES</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>MOISES PADILLA (MAGALLON)</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">5th </t>
         </is>
       </c>
-      <c r="H39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4" t="n">
+      <c r="H39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY3CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="K39" s="5" t="n">
         <v>11351550.98</v>
       </c>
-      <c r="L39" s="4" t="n">
+      <c r="L39" s="5" t="n">
         <v>9895300.9</v>
       </c>
-      <c r="M39" s="4" t="inlineStr">
+      <c r="M39" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N39" s="4" t="n">
+      <c r="N39" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="O39" s="5" t="n">
+      <c r="O39" s="6" t="n">
         <v>45703</v>
       </c>
-      <c r="P39" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q39" s="4" t="inlineStr">
+      <c r="P39" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q39" s="5" t="inlineStr">
         <is>
           <t>23-11-29</t>
         </is>
       </c>
-      <c r="R39" s="4" t="inlineStr">
+      <c r="R39" s="5" t="inlineStr">
         <is>
           <t>24-09-003</t>
         </is>
       </c>
-      <c r="S39" s="5" t="n">
+      <c r="S39" s="6" t="n">
         <v>45250</v>
       </c>
-      <c r="T39" s="5" t="n">
+      <c r="T39" s="6" t="n">
         <v>45257</v>
       </c>
-      <c r="U39" s="5" t="n">
+      <c r="U39" s="6" t="n">
         <v>45271</v>
       </c>
-      <c r="V39" s="5" t="n">
+      <c r="V39" s="6" t="n">
         <v>45499</v>
       </c>
-      <c r="W39" s="5" t="n">
+      <c r="W39" s="6" t="n">
         <v>45539</v>
       </c>
-      <c r="X39" s="4" t="inlineStr">
+      <c r="X39" s="5" t="inlineStr">
         <is>
           <t>CGGFR Construction and Construction Supply</t>
         </is>
       </c>
-      <c r="Y39" s="4" t="inlineStr">
+      <c r="Y39" s="5" t="inlineStr">
         <is>
           <t>on-going</t>
         </is>
       </c>
-      <c r="Z39" s="4" t="n"/>
+      <c r="Z39" s="7" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="5" t="n">
         <v>180510</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>Montelo ES</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>ILOG</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">6th </t>
         </is>
       </c>
-      <c r="H40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4" t="n">
+      <c r="H40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY3CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="K40" s="5" t="n">
         <v>11351550.98</v>
       </c>
-      <c r="L40" s="4" t="n">
+      <c r="L40" s="5" t="n">
         <v>11222892.59</v>
       </c>
-      <c r="M40" s="4" t="inlineStr">
+      <c r="M40" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N40" s="4" t="n">
+      <c r="N40" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="O40" s="5" t="n">
+      <c r="O40" s="6" t="n">
         <v>45719</v>
       </c>
-      <c r="P40" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q40" s="4" t="inlineStr">
+      <c r="P40" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q40" s="5" t="inlineStr">
         <is>
           <t>23-11-004</t>
         </is>
       </c>
-      <c r="R40" s="4" t="inlineStr">
+      <c r="R40" s="5" t="inlineStr">
         <is>
           <t>24-09-004</t>
         </is>
       </c>
-      <c r="S40" s="5" t="n">
+      <c r="S40" s="6" t="n">
         <v>45250</v>
       </c>
-      <c r="T40" s="5" t="n">
+      <c r="T40" s="6" t="n">
         <v>45257</v>
       </c>
-      <c r="U40" s="5" t="n">
+      <c r="U40" s="6" t="n">
         <v>45271</v>
       </c>
-      <c r="V40" s="5" t="n">
+      <c r="V40" s="6" t="n">
         <v>45499</v>
       </c>
-      <c r="W40" s="5" t="n">
+      <c r="W40" s="6" t="n">
         <v>45555</v>
       </c>
-      <c r="X40" s="4" t="inlineStr">
+      <c r="X40" s="5" t="inlineStr">
         <is>
           <t>Par Builders</t>
         </is>
       </c>
-      <c r="Y40" s="4" t="inlineStr">
+      <c r="Y40" s="5" t="inlineStr">
         <is>
           <t>on-going</t>
         </is>
       </c>
-      <c r="Z40" s="4" t="n"/>
+      <c r="Z40" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region VI/Region VI_LMS.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -455,10 +455,10 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="40" customWidth="1" min="5" max="5"/>
-    <col width="31" customWidth="1" min="6" max="6"/>
+    <col width="39" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -1909,7 +1909,7 @@
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>LMS 2021</t>
+          <t>LMS 2022</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
@@ -1919,105 +1919,95 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>302631</v>
+        <v>114710</v>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Florentina C. Recto MHS - Caliling Ext</t>
+          <t>TABUNGYAN ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>CAUAYAN</t>
+          <t>BURUANGA</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
       <c r="K14" s="5" t="n">
-        <v>12162474.45</v>
+        <v>19158007.74450023</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0</v>
+        <v>18808160.79</v>
       </c>
       <c r="M14" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="N14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="5" t="inlineStr">
-        <is>
-          <t>CO PROCURED inaugurated (August)</t>
-        </is>
+      <c r="O14" s="6" t="n">
+        <v>45261</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>45265</v>
+      </c>
+      <c r="Q14" s="5" t="inlineStr">
+        <is>
+          <t>INFRA 2023-05-002</t>
+        </is>
+      </c>
+      <c r="R14" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-001</t>
+        </is>
+      </c>
+      <c r="S14" s="6" t="n">
+        <v>45057</v>
+      </c>
+      <c r="T14" s="6" t="n">
+        <v>45065</v>
+      </c>
+      <c r="U14" s="6" t="n">
+        <v>45079</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>45110</v>
+      </c>
+      <c r="W14" s="6" t="n">
+        <v>45117</v>
+      </c>
+      <c r="X14" s="5" t="inlineStr">
+        <is>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="Y14" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="Z14" s="7" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>LMS 2021</t>
+          <t>LMS 2022</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
@@ -2027,105 +2017,97 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>117008</v>
+        <v>501181</v>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>Patol Elementary School</t>
+          <t>Vivo Integrated School</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>CAUAYAN</t>
+          <t>Tangalan</t>
         </is>
       </c>
       <c r="G15" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM, PERIMETER FENCE  200 Meters </t>
         </is>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17312723.74</v>
+        <v>19740374.52422607</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0</v>
+        <v>19000879.05</v>
       </c>
       <c r="M15" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="N15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O15" s="6" t="n">
+        <v>45261</v>
       </c>
       <c r="P15" s="5" t="inlineStr">
         <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5" t="inlineStr">
-        <is>
-          <t>CO PROCURED inaugurated (August)</t>
-        </is>
+          <t>November 24, 2023</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>INFRA 2023-05-002</t>
+        </is>
+      </c>
+      <c r="R15" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-002</t>
+        </is>
+      </c>
+      <c r="S15" s="6" t="n">
+        <v>45057</v>
+      </c>
+      <c r="T15" s="6" t="n">
+        <v>45065</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <v>45079</v>
+      </c>
+      <c r="V15" s="6" t="n">
+        <v>45110</v>
+      </c>
+      <c r="W15" s="6" t="n">
+        <v>45113</v>
+      </c>
+      <c r="X15" s="5" t="inlineStr">
+        <is>
+          <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
+        </is>
+      </c>
+      <c r="Y15" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="Z15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>LMS 2021</t>
+          <t>LMS 2022</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
@@ -2135,97 +2117,89 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>116982</v>
+        <v>114975</v>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Talangnan ES</t>
+          <t>Buenavista ES</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>CAUAYAN</t>
+          <t>BELISON</t>
         </is>
       </c>
       <c r="G16" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J16" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, AND REPAIR/REHABILITATION OF 7 CLASSROOMS</t>
         </is>
       </c>
       <c r="K16" s="5" t="n">
-        <v>19254393.25</v>
+        <v>21786950.50960388</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>0</v>
+        <v>16550995.27</v>
       </c>
       <c r="M16" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="N16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X16" s="5" t="n">
-        <v>0</v>
+      <c r="O16" s="6" t="n">
+        <v>45261</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>45481</v>
+      </c>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>R6-D2-2022BEFF-37-NC</t>
+        </is>
+      </c>
+      <c r="R16" s="5" t="inlineStr">
+        <is>
+          <t>R6-D2-2022BEFF-37-NC</t>
+        </is>
+      </c>
+      <c r="S16" s="6" t="n">
+        <v>44890</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <v>44897</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>44904</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>44916</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>44916</v>
+      </c>
+      <c r="X16" s="5" t="inlineStr">
+        <is>
+          <t>Nesmark Construction Enterprises</t>
+        </is>
       </c>
       <c r="Y16" s="5" t="inlineStr">
         <is>
-          <t>CO PROCURED inaugurated (August)</t>
+          <t>Completed as per approved plans and variation order</t>
         </is>
       </c>
       <c r="Z16" s="7" t="n"/>
@@ -2243,41 +2217,41 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>114710</v>
+        <v>115129</v>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>TABUNGYAN ELEMENTARY SCHOOL</t>
+          <t>Igcagay PS</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>BURUANGA</t>
+          <t>LIBERTAD</t>
         </is>
       </c>
       <c r="G17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM</t>
+          <t>CONSTRUCTION OF ONE(1) UNIT - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR AND REHABILITATION OF 2 CLASSROOMS</t>
         </is>
       </c>
       <c r="K17" s="5" t="n">
-        <v>19158007.74450023</v>
+        <v>15795342.76</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18808160.79</v>
+        <v>12901507.38</v>
       </c>
       <c r="M17" s="5" t="inlineStr">
         <is>
@@ -2290,41 +2264,47 @@
       <c r="O17" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P17" s="6" t="n">
-        <v>45265</v>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2024</t>
+        </is>
       </c>
       <c r="Q17" s="5" t="inlineStr">
         <is>
-          <t>INFRA 2023-05-002</t>
+          <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
-          <t>2023-07-001</t>
+          <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
       <c r="S17" s="6" t="n">
-        <v>45057</v>
+        <v>45096</v>
       </c>
       <c r="T17" s="6" t="n">
-        <v>45065</v>
+        <v>45103</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>45079</v>
-      </c>
-      <c r="V17" s="6" t="n">
         <v>45110</v>
       </c>
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>Augut 17, 2023</t>
+        </is>
+      </c>
       <c r="W17" s="6" t="n">
-        <v>45117</v>
+        <v>45167</v>
       </c>
       <c r="X17" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="Y17" s="5" t="n">
-        <v>0</v>
+          <t>D' X-man Builders Corporation</t>
+        </is>
+      </c>
+      <c r="Y17" s="5" t="inlineStr">
+        <is>
+          <t>Completed as per approved plans and variation order</t>
+        </is>
       </c>
       <c r="Z17" s="7" t="n"/>
     </row>
@@ -2341,41 +2321,41 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>501181</v>
+        <v>115853</v>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Vivo Integrated School</t>
+          <t>Miagos Primary School</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>Tangalan</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM, PERIMETER FENCE  200 Meters </t>
+          <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,   AND WATER SYSTEM </t>
         </is>
       </c>
       <c r="K18" s="5" t="n">
-        <v>19740374.52422607</v>
+        <v>12611496.1788</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19000879.05</v>
+        <v>12298193.75</v>
       </c>
       <c r="M18" s="5" t="inlineStr">
         <is>
@@ -2388,39 +2368,37 @@
       <c r="O18" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t>November 24, 2023</t>
-        </is>
+      <c r="P18" s="6" t="n">
+        <v>45192</v>
       </c>
       <c r="Q18" s="5" t="inlineStr">
         <is>
-          <t>INFRA 2023-05-002</t>
+          <t>03-2022-lot 1</t>
         </is>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
-          <t>2023-07-002</t>
+          <t>No. 03-A-2022</t>
         </is>
       </c>
       <c r="S18" s="6" t="n">
-        <v>45057</v>
+        <v>44694</v>
       </c>
       <c r="T18" s="6" t="n">
-        <v>45065</v>
+        <v>44706</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>45079</v>
+        <v>44726</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>45110</v>
+        <v>44743</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>45113</v>
+        <v>44830</v>
       </c>
       <c r="X18" s="5" t="inlineStr">
         <is>
-          <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
+          <t>ARRIANNE MERCHANDISING AND CONSTRUCTION SERVICES, INC</t>
         </is>
       </c>
       <c r="Y18" s="5" t="n">
@@ -2441,41 +2419,41 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>114975</v>
+        <v>116117</v>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Buenavista ES</t>
+          <t>Tubod PS</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>BELISON</t>
+          <t>BINGAWAN</t>
         </is>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, AND REPAIR/REHABILITATION OF 7 CLASSROOMS</t>
+          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS 7x36 (MODIFIED STANDARD DPWH-DEPED) WITH TOILET EACH CLASSROOM, SOLAR PANEL @ WATER SUPPLY SYSTEM</t>
         </is>
       </c>
       <c r="K19" s="5" t="n">
-        <v>21786950.50960388</v>
+        <v>16950819.24</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16550995.27</v>
+        <v>13831624.51</v>
       </c>
       <c r="M19" s="5" t="inlineStr">
         <is>
@@ -2486,52 +2464,56 @@
         <v>1</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>45261</v>
+        <v>45388</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>45481</v>
+        <v>45511</v>
       </c>
       <c r="Q19" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-37-NC</t>
+          <t>BEFF2022-RVI-022-LMS-L1</t>
         </is>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-37-NC</t>
-        </is>
-      </c>
-      <c r="S19" s="6" t="n">
-        <v>44890</v>
-      </c>
-      <c r="T19" s="6" t="n">
-        <v>44897</v>
+          <t>BEFF2022-RVI-022-LMS-L1</t>
+        </is>
+      </c>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>17/04/2023</t>
+        </is>
+      </c>
+      <c r="T19" s="5" t="inlineStr">
+        <is>
+          <t>24/04/2023</t>
+        </is>
       </c>
       <c r="U19" s="6" t="n">
-        <v>44904</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>44916</v>
+        <v>45143</v>
+      </c>
+      <c r="V19" s="5" t="inlineStr">
+        <is>
+          <t>29/06/2023</t>
+        </is>
       </c>
       <c r="W19" s="6" t="n">
-        <v>44916</v>
+        <v>44993</v>
       </c>
       <c r="X19" s="5" t="inlineStr">
         <is>
-          <t>Nesmark Construction Enterprises</t>
-        </is>
-      </c>
-      <c r="Y19" s="5" t="inlineStr">
-        <is>
-          <t>Completed as per approved plans and variation order</t>
-        </is>
+          <t>CDJ Builders Corporation</t>
+        </is>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="Z19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>LMS 2022</t>
+          <t>LMS 2023</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
@@ -2541,24 +2523,24 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>115129</v>
+        <v>114931</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Igcagay PS</t>
+          <t>Lanipga Napatag Primary School</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>LIBERTAD</t>
+          <t>TANGALAN</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>1</v>
@@ -2568,14 +2550,14 @@
       </c>
       <c r="J20" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE(1) UNIT - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR AND REHABILITATION OF 2 CLASSROOMS</t>
+          <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K20" s="5" t="n">
-        <v>15795342.76</v>
+        <v>19969508.48</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12901507.38</v>
+        <v>16152092.89</v>
       </c>
       <c r="M20" s="5" t="inlineStr">
         <is>
@@ -2586,56 +2568,50 @@
         <v>1</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>45261</v>
-      </c>
-      <c r="P20" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2024</t>
-        </is>
+        <v>45291</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>45476</v>
       </c>
       <c r="Q20" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-BEFF2023-11-NC</t>
+          <t>DepED-RO6-D1-LMS2023-019-2023</t>
         </is>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-BEFF2023-11-NC</t>
+          <t>DepED-RO6-D1-LMS2023-019-2023</t>
         </is>
       </c>
       <c r="S20" s="6" t="n">
+        <v>45042</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <v>45049</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>45061</v>
+      </c>
+      <c r="V20" s="6" t="n">
         <v>45096</v>
       </c>
-      <c r="T20" s="6" t="n">
-        <v>45103</v>
-      </c>
-      <c r="U20" s="6" t="n">
-        <v>45110</v>
-      </c>
-      <c r="V20" s="5" t="inlineStr">
-        <is>
-          <t>Augut 17, 2023</t>
-        </is>
-      </c>
       <c r="W20" s="6" t="n">
-        <v>45167</v>
+        <v>45104</v>
       </c>
       <c r="X20" s="5" t="inlineStr">
         <is>
-          <t>D' X-man Builders Corporation</t>
-        </is>
-      </c>
-      <c r="Y20" s="5" t="inlineStr">
-        <is>
-          <t>Completed as per approved plans and variation order</t>
-        </is>
+          <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
+        </is>
+      </c>
+      <c r="Y20" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="Z20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>LMS 2022</t>
+          <t>LMS 2023</t>
         </is>
       </c>
       <c r="B21" s="5" t="inlineStr">
@@ -2645,20 +2621,20 @@
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>115853</v>
+        <v>115139</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Miagos Primary School</t>
+          <t>Tinindugan Primary School</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>LIBERTAD</t>
         </is>
       </c>
       <c r="G21" s="5" t="n">
@@ -2668,18 +2644,18 @@
         <v>1</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,   AND WATER SYSTEM </t>
+          <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K21" s="5" t="n">
-        <v>12611496.1788</v>
+        <v>17170000</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12298193.75</v>
+        <v>12901507.38</v>
       </c>
       <c r="M21" s="5" t="inlineStr">
         <is>
@@ -2690,50 +2666,52 @@
         <v>1</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>45261</v>
+        <v>45413</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>45192</v>
+        <v>45468</v>
       </c>
       <c r="Q21" s="5" t="inlineStr">
         <is>
-          <t>03-2022-lot 1</t>
+          <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>No. 03-A-2022</t>
+          <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
       <c r="S21" s="6" t="n">
-        <v>44694</v>
+        <v>45089</v>
       </c>
       <c r="T21" s="6" t="n">
-        <v>44706</v>
+        <v>45096</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>44726</v>
+        <v>45110</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>44743</v>
+        <v>45187</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>44830</v>
+        <v>45258</v>
       </c>
       <c r="X21" s="5" t="inlineStr">
         <is>
-          <t>ARRIANNE MERCHANDISING AND CONSTRUCTION SERVICES, INC</t>
-        </is>
-      </c>
-      <c r="Y21" s="5" t="n">
-        <v>0</v>
+          <t>MJSb Builders and Supply</t>
+        </is>
+      </c>
+      <c r="Y21" s="5" t="inlineStr">
+        <is>
+          <t>Completed as per POW and VO</t>
+        </is>
       </c>
       <c r="Z21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>LMS 2022</t>
+          <t>LMS 2023</t>
         </is>
       </c>
       <c r="B22" s="5" t="inlineStr">
@@ -2743,24 +2721,24 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>116117</v>
+        <v>115859</v>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Tubod PS</t>
+          <t>Tangaw Primary School</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>BINGAWAN</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G22" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>1</v>
@@ -2770,14 +2748,14 @@
       </c>
       <c r="J22" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS 7x36 (MODIFIED STANDARD DPWH-DEPED) WITH TOILET EACH CLASSROOM, SOLAR PANEL @ WATER SUPPLY SYSTEM</t>
+          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) ROOFING, STEEL TRUSSES CONCRETE WORKS, MASONRY WORKS, ELECTRICAL WORKS, AND PLUMBINGWITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,   AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K22" s="5" t="n">
-        <v>16950819.24</v>
+        <v>17170000</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13831624.51</v>
+        <v>12209995.28</v>
       </c>
       <c r="M22" s="5" t="inlineStr">
         <is>
@@ -2788,49 +2766,45 @@
         <v>1</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>45388</v>
+        <v>45310</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>45511</v>
+        <v>45366</v>
       </c>
       <c r="Q22" s="5" t="inlineStr">
         <is>
-          <t>BEFF2022-RVI-022-LMS-L1</t>
+          <t>No. 03-2023</t>
         </is>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>BEFF2022-RVI-022-LMS-L1</t>
-        </is>
-      </c>
-      <c r="S22" s="5" t="inlineStr">
-        <is>
-          <t>17/04/2023</t>
-        </is>
-      </c>
-      <c r="T22" s="5" t="inlineStr">
-        <is>
-          <t>24/04/2023</t>
-        </is>
+          <t>No. 03-2023</t>
+        </is>
+      </c>
+      <c r="S22" s="6" t="n">
+        <v>45028</v>
+      </c>
+      <c r="T22" s="6" t="n">
+        <v>45044</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>45143</v>
-      </c>
-      <c r="V22" s="5" t="inlineStr">
-        <is>
-          <t>29/06/2023</t>
-        </is>
+        <v>45057</v>
+      </c>
+      <c r="V22" s="6" t="n">
+        <v>45083</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>44993</v>
+        <v>45093</v>
       </c>
       <c r="X22" s="5" t="inlineStr">
         <is>
-          <t>CDJ Builders Corporation</t>
-        </is>
-      </c>
-      <c r="Y22" s="5" t="n">
-        <v>0</v>
+          <t>Early Riser Construction</t>
+        </is>
+      </c>
+      <c r="Y22" s="5" t="inlineStr">
+        <is>
+          <t>Completed with approved VO in the amount of  956,217.09</t>
+        </is>
       </c>
       <c r="Z22" s="7" t="n"/>
     </row>
@@ -2847,24 +2821,24 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>114931</v>
+        <v>116107</v>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>Lanipga Napatag Primary School</t>
+          <t>Cairohan PS</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>TANGALAN</t>
+          <t>BINGAWAN</t>
         </is>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>1</v>
@@ -2874,14 +2848,14 @@
       </c>
       <c r="J23" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K23" s="5" t="n">
-        <v>19969508.48</v>
+        <v>18854193.63</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16152092.89</v>
+        <v>12144077.99</v>
       </c>
       <c r="M23" s="5" t="inlineStr">
         <is>
@@ -2892,39 +2866,39 @@
         <v>1</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>45291</v>
+        <v>45381</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>45476</v>
+        <v>45511</v>
       </c>
       <c r="Q23" s="5" t="inlineStr">
         <is>
-          <t>DepED-RO6-D1-LMS2023-019-2023</t>
+          <t>BEFF2023-RVI-022-LMS-L1</t>
         </is>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>DepED-RO6-D1-LMS2023-019-2023</t>
+          <t>BEFF2023-RVI-022-LMS-L1</t>
         </is>
       </c>
       <c r="S23" s="6" t="n">
-        <v>45042</v>
+        <v>45033</v>
       </c>
       <c r="T23" s="6" t="n">
-        <v>45049</v>
+        <v>45040</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>45061</v>
+        <v>45054</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>45096</v>
+        <v>45106</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>45104</v>
+        <v>45141</v>
       </c>
       <c r="X23" s="5" t="inlineStr">
         <is>
-          <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
+          <t>CDJ Builders Corporation</t>
         </is>
       </c>
       <c r="Y23" s="5" t="n">
@@ -2945,41 +2919,41 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>115139</v>
+        <v>116099</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>Tinindugan Primary School</t>
+          <t>Malico PS</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>LIBERTAD</t>
+          <t>BATAD</t>
         </is>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>ONE (1) STOREY-FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17170000</v>
+        <v>23471443.86</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12901507.38</v>
+        <v>15174823.71</v>
       </c>
       <c r="M24" s="5" t="inlineStr">
         <is>
@@ -2990,52 +2964,50 @@
         <v>1</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>45413</v>
+        <v>45381</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>45468</v>
+        <v>45512</v>
       </c>
       <c r="Q24" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-BEFF2023-11-NC</t>
+          <t>BEFF2023-RVI-022-LMS-L2</t>
         </is>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-BEFF2023-11-NC</t>
+          <t>BEFF2023-RVI-022-LMS-L2</t>
         </is>
       </c>
       <c r="S24" s="6" t="n">
-        <v>45089</v>
+        <v>45033</v>
       </c>
       <c r="T24" s="6" t="n">
-        <v>45096</v>
+        <v>45040</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>45110</v>
+        <v>45054</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>45187</v>
+        <v>45106</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>45258</v>
+        <v>45141</v>
       </c>
       <c r="X24" s="5" t="inlineStr">
         <is>
-          <t>MJSb Builders and Supply</t>
-        </is>
-      </c>
-      <c r="Y24" s="5" t="inlineStr">
-        <is>
-          <t>Completed as per POW and VO</t>
-        </is>
+          <t>CDJ Builders Corporation</t>
+        </is>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="Z24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>LMS 2023</t>
+          <t>LMS 2024</t>
         </is>
       </c>
       <c r="B25" s="5" t="inlineStr">
@@ -3045,41 +3017,43 @@
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>115859</v>
+        <v>114860</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>Tangaw Primary School</t>
+          <t>Cogon Elementary School</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="n">
-        <v>0</v>
+          <t>MALINAO</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2nd </t>
+        </is>
       </c>
       <c r="H25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) ROOFING, STEEL TRUSSES CONCRETE WORKS, MASONRY WORKS, ELECTRICAL WORKS, AND PLUMBINGWITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,   AND WATER SYSTEM</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K25" s="5" t="n">
-        <v>17170000</v>
+        <v>21223289.1</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12209995.28</v>
+        <v>20460400.84</v>
       </c>
       <c r="M25" s="5" t="inlineStr">
         <is>
@@ -3090,44 +3064,44 @@
         <v>1</v>
       </c>
       <c r="O25" s="6" t="n">
+        <v>45688</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>45702</v>
+      </c>
+      <c r="Q25" s="5" t="inlineStr">
+        <is>
+          <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr">
+        <is>
+          <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
+        </is>
+      </c>
+      <c r="S25" s="6" t="n">
+        <v>45244</v>
+      </c>
+      <c r="T25" s="6" t="n">
+        <v>45251</v>
+      </c>
+      <c r="U25" s="6" t="n">
+        <v>45264</v>
+      </c>
+      <c r="V25" s="6" t="n">
         <v>45310</v>
       </c>
-      <c r="P25" s="6" t="n">
-        <v>45366</v>
-      </c>
-      <c r="Q25" s="5" t="inlineStr">
-        <is>
-          <t>No. 03-2023</t>
-        </is>
-      </c>
-      <c r="R25" s="5" t="inlineStr">
-        <is>
-          <t>No. 03-2023</t>
-        </is>
-      </c>
-      <c r="S25" s="6" t="n">
-        <v>45028</v>
-      </c>
-      <c r="T25" s="6" t="n">
-        <v>45044</v>
-      </c>
-      <c r="U25" s="6" t="n">
-        <v>45057</v>
-      </c>
-      <c r="V25" s="6" t="n">
-        <v>45083</v>
-      </c>
       <c r="W25" s="6" t="n">
-        <v>45093</v>
+        <v>45441</v>
       </c>
       <c r="X25" s="5" t="inlineStr">
         <is>
-          <t>Early Riser Construction</t>
+          <t>GMO CONSTRUCTION</t>
         </is>
       </c>
       <c r="Y25" s="5" t="inlineStr">
         <is>
-          <t>Completed with approved VO in the amount of  956,217.09</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="Z25" s="7" t="n"/>
@@ -3135,7 +3109,7 @@
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>LMS 2023</t>
+          <t>LMS 2024</t>
         </is>
       </c>
       <c r="B26" s="5" t="inlineStr">
@@ -3145,24 +3119,26 @@
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>116107</v>
+        <v>115268</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Cairohan PS</t>
+          <t>Panpanan I ES</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>BINGAWAN</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="n">
-        <v>3</v>
+          <t>SAN REMIGIO</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lone </t>
+        </is>
       </c>
       <c r="H26" s="5" t="n">
         <v>1</v>
@@ -3172,68 +3148,72 @@
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY AND WATER SYSTEM</t>
+          <t>PROPOSED CONSTRUCTION OF ONE(1) UNIT -  ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K26" s="5" t="n">
-        <v>18854193.63</v>
+        <v>17377521.03</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12144077.99</v>
+        <v>12162100.86</v>
       </c>
       <c r="M26" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="N26" s="5" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>45381</v>
-      </c>
-      <c r="P26" s="6" t="n">
-        <v>45511</v>
+        <v>45919</v>
+      </c>
+      <c r="P26" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Q26" s="5" t="inlineStr">
         <is>
-          <t>BEFF2023-RVI-022-LMS-L1</t>
+          <t>R6-D2-GAA2024-07-NC</t>
         </is>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>BEFF2023-RVI-022-LMS-L1</t>
+          <t>R6-D2-GAA2024-07-NC</t>
         </is>
       </c>
       <c r="S26" s="6" t="n">
-        <v>45033</v>
+        <v>45317</v>
       </c>
       <c r="T26" s="6" t="n">
-        <v>45040</v>
+        <v>45324</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>45054</v>
+        <v>45338</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>45106</v>
+        <v>45387</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>45141</v>
+        <v>45492</v>
       </c>
       <c r="X26" s="5" t="inlineStr">
         <is>
-          <t>CDJ Builders Corporation</t>
-        </is>
-      </c>
-      <c r="Y26" s="5" t="n">
-        <v>0</v>
+          <t>MDG Const. &amp; Supply</t>
+        </is>
+      </c>
+      <c r="Y26" s="5" t="inlineStr">
+        <is>
+          <t>Already issued ressumption order last February 24, 2025</t>
+        </is>
       </c>
       <c r="Z26" s="7" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>LMS 2023</t>
+          <t>LMS 2024</t>
         </is>
       </c>
       <c r="B27" s="5" t="inlineStr">
@@ -3243,88 +3223,90 @@
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Cadiz City</t>
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>116099</v>
+        <v>117533</v>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>Malico PS</t>
+          <t>Hiyang-Hiyang ES</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>BATAD</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="n">
+          <t>CADIZ CITY</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2nd </t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5" t="n">
-        <v>4</v>
-      </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
-          <t>ONE (1) STOREY-FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF 1STY 5CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM with hauling cost</t>
         </is>
       </c>
       <c r="K27" s="5" t="n">
-        <v>23471443.86</v>
+        <v>16383838.38</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15174823.71</v>
+        <v>15997903.42</v>
       </c>
       <c r="M27" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="N27" s="5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>45381</v>
-      </c>
-      <c r="P27" s="6" t="n">
-        <v>45512</v>
-      </c>
-      <c r="Q27" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2023-RVI-022-LMS-L2</t>
-        </is>
-      </c>
-      <c r="R27" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2023-RVI-022-LMS-L2</t>
-        </is>
+        <v>45723</v>
+      </c>
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="S27" s="6" t="n">
-        <v>45033</v>
+        <v>45470</v>
       </c>
       <c r="T27" s="6" t="n">
-        <v>45040</v>
+        <v>45478</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>45054</v>
+        <v>45497</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>45106</v>
+        <v>45510</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>45141</v>
+        <v>45332</v>
       </c>
       <c r="X27" s="5" t="inlineStr">
         <is>
-          <t>CDJ Builders Corporation</t>
-        </is>
-      </c>
-      <c r="Y27" s="5" t="n">
-        <v>0</v>
+          <t>Keanne construction services</t>
+        </is>
+      </c>
+      <c r="Y27" s="5" t="inlineStr">
+        <is>
+          <t>With approved 150CD time extension due to unpassable road (landslide/manual hauling/unpassable road) Project ID and Contract ID to be confirmed from the BAC Secretariat</t>
+        </is>
       </c>
       <c r="Z27" s="7" t="n"/>
     </row>
@@ -3341,91 +3323,93 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Capiz</t>
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>114860</v>
+        <v>500796</v>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>Cogon Elementary School</t>
+          <t>Duluan Integrated School</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>MALINAO</t>
+          <t>MA-AYON</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2nd </t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K28" s="5" t="n">
-        <v>21223289.1</v>
+        <v>24242424.24</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>20460400.84</v>
+        <v>14878415.3</v>
       </c>
       <c r="M28" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="N28" s="5" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>45688</v>
-      </c>
-      <c r="P28" s="6" t="n">
-        <v>45702</v>
+        <v>45827</v>
+      </c>
+      <c r="P28" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Q28" s="5" t="inlineStr">
         <is>
-          <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
+          <t>R6-DepEd-Capiz-CY 2024-BEFF-DuluanIS-Lot1</t>
         </is>
       </c>
       <c r="R28" s="5" t="inlineStr">
         <is>
-          <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
+          <t>CB No. 2024 - 032</t>
         </is>
       </c>
       <c r="S28" s="6" t="n">
-        <v>45244</v>
+        <v>45471</v>
       </c>
       <c r="T28" s="6" t="n">
-        <v>45251</v>
+        <v>45483</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>45264</v>
+        <v>45495</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>45310</v>
+        <v>45519</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>45441</v>
+        <v>45579</v>
       </c>
       <c r="X28" s="5" t="inlineStr">
         <is>
-          <t>GMO CONSTRUCTION</t>
+          <t>AMD ENGINEERING AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
       <c r="Y28" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>REQUESTED FOR 60 CD TIME EXTENSION. APPROVED LAST APRIL 2, 2025</t>
         </is>
       </c>
       <c r="Z28" s="7" t="n"/>
@@ -3443,43 +3427,43 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Capiz</t>
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>115268</v>
+        <v>501439</v>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>Panpanan I ES</t>
+          <t>Sinamongan Integrated School</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>SAN REMIGIO</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lone </t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H29" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE(1) UNIT -  ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K29" s="5" t="n">
-        <v>17377521.03</v>
+        <v>21919191.92</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12162100.86</v>
+        <v>13454000</v>
       </c>
       <c r="M29" s="5" t="inlineStr">
         <is>
@@ -3487,10 +3471,10 @@
         </is>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>45919</v>
+        <v>45780</v>
       </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
@@ -3499,37 +3483,37 @@
       </c>
       <c r="Q29" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-GAA2024-07-NC</t>
+          <t>R6-DepEd-Capiz-CY 2024-BEFF-SinamonganIS-Lot2</t>
         </is>
       </c>
       <c r="R29" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-GAA2024-07-NC</t>
+          <t>CB No. 2024 - 033</t>
         </is>
       </c>
       <c r="S29" s="6" t="n">
-        <v>45317</v>
+        <v>45471</v>
       </c>
       <c r="T29" s="6" t="n">
-        <v>45324</v>
+        <v>45483</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>45338</v>
+        <v>45495</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>45387</v>
+        <v>45519</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>45492</v>
+        <v>45590</v>
       </c>
       <c r="X29" s="5" t="inlineStr">
         <is>
-          <t>MDG Const. &amp; Supply</t>
+          <t>TUNGALA CONSTRUCTION SERVICES</t>
         </is>
       </c>
       <c r="Y29" s="5" t="inlineStr">
         <is>
-          <t>Already issued ressumption order last February 24, 2025</t>
+          <t>SUBSTANTIALLY COMPLETED</t>
         </is>
       </c>
       <c r="Z29" s="7" t="n"/>
@@ -3547,89 +3531,91 @@
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>Cadiz City</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>117533</v>
+        <v>115903</v>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>Hiyang-Hiyang ES</t>
+          <t>Paaralan ng Buhay ng Taras</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>CADIZ CITY</t>
+          <t>NUEVA VALENCIA</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2nd </t>
+          <t xml:space="preserve">Lone </t>
         </is>
       </c>
       <c r="H30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF 1STY 5CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM with hauling cost</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K30" s="5" t="n">
-        <v>16383838.38</v>
+        <v>17188760.85</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15997903.42</v>
+        <v>16914477.63</v>
       </c>
       <c r="M30" s="5" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>45723</v>
-      </c>
-      <c r="P30" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="5" t="n">
-        <v>0</v>
+        <v>45591</v>
+      </c>
+      <c r="P30" s="6" t="n">
+        <v>45653</v>
+      </c>
+      <c r="Q30" s="5" t="inlineStr">
+        <is>
+          <t>No. 06-2024</t>
+        </is>
+      </c>
+      <c r="R30" s="5" t="inlineStr">
+        <is>
+          <t>No. 06-2024</t>
+        </is>
       </c>
       <c r="S30" s="6" t="n">
-        <v>45470</v>
+        <v>45215</v>
       </c>
       <c r="T30" s="6" t="n">
-        <v>45478</v>
+        <v>45223</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>45497</v>
+        <v>45235</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>45510</v>
+        <v>45425</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>45332</v>
+        <v>45436</v>
       </c>
       <c r="X30" s="5" t="inlineStr">
         <is>
-          <t>Keanne construction services</t>
+          <t>Early Riser Construction</t>
         </is>
       </c>
       <c r="Y30" s="5" t="inlineStr">
         <is>
-          <t>With approved 150CD time extension due to unpassable road (landslide/manual hauling/unpassable road) Project ID and Contract ID to be confirmed from the BAC Secretariat</t>
+          <t>With approved time extension due to unworkable weather conditions &amp; change/increase of elevation</t>
         </is>
       </c>
       <c r="Z30" s="7" t="n"/>
@@ -3647,43 +3633,43 @@
       </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>Capiz</t>
+          <t>Himamaylan City</t>
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>500796</v>
+        <v>117066</v>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>Duluan Integrated School</t>
+          <t>Balatogan Elementary School</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>MA-AYON</t>
+          <t>CITY OF HIMAMAYLAN</t>
         </is>
       </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t xml:space="preserve">5th </t>
         </is>
       </c>
       <c r="H31" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K31" s="5" t="n">
-        <v>24242424.24</v>
+        <v>17171717.17</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>14878415.3</v>
+        <v>16860289.87</v>
       </c>
       <c r="M31" s="5" t="inlineStr">
         <is>
@@ -3691,10 +3677,10 @@
         </is>
       </c>
       <c r="N31" s="5" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>45827</v>
+        <v>45820</v>
       </c>
       <c r="P31" s="5" t="inlineStr">
         <is>
@@ -3703,37 +3689,37 @@
       </c>
       <c r="Q31" s="5" t="inlineStr">
         <is>
-          <t>R6-DepEd-Capiz-CY 2024-BEFF-DuluanIS-Lot1</t>
+          <t>2024-10-0006</t>
         </is>
       </c>
       <c r="R31" s="5" t="inlineStr">
         <is>
-          <t>CB No. 2024 - 032</t>
+          <t>2024-10-0006</t>
         </is>
       </c>
       <c r="S31" s="6" t="n">
-        <v>45471</v>
+        <v>45472</v>
       </c>
       <c r="T31" s="6" t="n">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>45579</v>
+        <v>45573</v>
       </c>
       <c r="X31" s="5" t="inlineStr">
         <is>
-          <t>AMD ENGINEERING AND CONSTRUCTION SUPPLY</t>
+          <t xml:space="preserve">JCORD Construction </t>
         </is>
       </c>
       <c r="Y31" s="5" t="inlineStr">
         <is>
-          <t>REQUESTED FOR 60 CD TIME EXTENSION. APPROVED LAST APRIL 2, 2025</t>
+          <t>On going</t>
         </is>
       </c>
       <c r="Z31" s="7" t="n"/>
@@ -3751,25 +3737,25 @@
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>Capiz</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>501439</v>
+        <v>116833</v>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>Sinamongan Integrated School</t>
+          <t>Lubog Primary School</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>TIGBAUAN</t>
         </is>
       </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t xml:space="preserve">1st </t>
         </is>
       </c>
       <c r="H32" s="5" t="n">
@@ -3780,14 +3766,14 @@
       </c>
       <c r="J32" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
       <c r="K32" s="5" t="n">
-        <v>21919191.92</v>
+        <v>19802964.97</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13454000</v>
+        <v>12634605.87</v>
       </c>
       <c r="M32" s="5" t="inlineStr">
         <is>
@@ -3795,10 +3781,10 @@
         </is>
       </c>
       <c r="N32" s="5" t="n">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>45780</v>
+        <v>45940</v>
       </c>
       <c r="P32" s="5" t="inlineStr">
         <is>
@@ -3807,37 +3793,37 @@
       </c>
       <c r="Q32" s="5" t="inlineStr">
         <is>
-          <t>R6-DepEd-Capiz-CY 2024-BEFF-SinamonganIS-Lot2</t>
+          <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
         </is>
       </c>
       <c r="R32" s="5" t="inlineStr">
         <is>
-          <t>CB No. 2024 - 033</t>
+          <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
         </is>
       </c>
       <c r="S32" s="6" t="n">
-        <v>45471</v>
+        <v>45511</v>
       </c>
       <c r="T32" s="6" t="n">
-        <v>45483</v>
+        <v>45518</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>45495</v>
+        <v>45534</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>45519</v>
+        <v>45548</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>45590</v>
+        <v>45700</v>
       </c>
       <c r="X32" s="5" t="inlineStr">
         <is>
-          <t>TUNGALA CONSTRUCTION SERVICES</t>
+          <t>EC Builders</t>
         </is>
       </c>
       <c r="Y32" s="5" t="inlineStr">
         <is>
-          <t>SUBSTANTIALLY COMPLETED</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="Z32" s="7" t="n"/>
@@ -3855,25 +3841,25 @@
       </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>115903</v>
+        <v>115973</v>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>Paaralan ng Buhay ng Taras</t>
+          <t>Aglay-ao Primary School</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>NUEVA VALENCIA</t>
+          <t>ANILAO</t>
         </is>
       </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lone </t>
+          <t xml:space="preserve">4th </t>
         </is>
       </c>
       <c r="H33" s="5" t="n">
@@ -3884,62 +3870,64 @@
       </c>
       <c r="J33" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
+          <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
       <c r="K33" s="5" t="n">
-        <v>17188760.85</v>
+        <v>19802964.97</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>16914477.63</v>
+        <v>14058943.18</v>
       </c>
       <c r="M33" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="N33" s="5" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>45591</v>
-      </c>
-      <c r="P33" s="6" t="n">
-        <v>45653</v>
+        <v>45751</v>
+      </c>
+      <c r="P33" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Q33" s="5" t="inlineStr">
         <is>
-          <t>No. 06-2024</t>
+          <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
         </is>
       </c>
       <c r="R33" s="5" t="inlineStr">
         <is>
-          <t>No. 06-2024</t>
+          <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
         </is>
       </c>
       <c r="S33" s="6" t="n">
-        <v>45215</v>
+        <v>45476</v>
       </c>
       <c r="T33" s="6" t="n">
-        <v>45223</v>
+        <v>45483</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>45235</v>
+        <v>45495</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>45425</v>
+        <v>45649</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>45436</v>
+        <v>45715</v>
       </c>
       <c r="X33" s="5" t="inlineStr">
         <is>
-          <t>Early Riser Construction</t>
+          <t>CDJ Builders Corporation</t>
         </is>
       </c>
       <c r="Y33" s="5" t="inlineStr">
         <is>
-          <t>With approved time extension due to unworkable weather conditions &amp; change/increase of elevation</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="Z33" s="7" t="n"/>
@@ -3957,20 +3945,20 @@
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>Himamaylan City</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>117066</v>
+        <v>116064</v>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>Balatogan Elementary School</t>
+          <t>California PS</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>CITY OF HIMAMAYLAN</t>
+          <t>BAROTAC VIEJO</t>
         </is>
       </c>
       <c r="G34" s="5" t="inlineStr">
@@ -3982,18 +3970,18 @@
         <v>1</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J34" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
       <c r="K34" s="5" t="n">
-        <v>17171717.17</v>
+        <v>19802964.97</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>16860289.87</v>
+        <v>13610045.75</v>
       </c>
       <c r="M34" s="5" t="inlineStr">
         <is>
@@ -4001,10 +3989,10 @@
         </is>
       </c>
       <c r="N34" s="5" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>45820</v>
+        <v>45751</v>
       </c>
       <c r="P34" s="5" t="inlineStr">
         <is>
@@ -4013,668 +4001,44 @@
       </c>
       <c r="Q34" s="5" t="inlineStr">
         <is>
-          <t>2024-10-0006</t>
+          <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
         </is>
       </c>
       <c r="R34" s="5" t="inlineStr">
         <is>
-          <t>2024-10-0006</t>
+          <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
         </is>
       </c>
       <c r="S34" s="6" t="n">
-        <v>45472</v>
+        <v>45476</v>
       </c>
       <c r="T34" s="6" t="n">
-        <v>45484</v>
+        <v>45483</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>45496</v>
+        <v>45495</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>45524</v>
+        <v>45649</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>45573</v>
+        <v>45715</v>
       </c>
       <c r="X34" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">JCORD Construction </t>
+          <t>CDJ Builders Corporation</t>
         </is>
       </c>
       <c r="Y34" s="5" t="inlineStr">
         <is>
-          <t>On going</t>
+          <t>with NTP</t>
         </is>
       </c>
       <c r="Z34" s="7" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>116833</v>
-      </c>
-      <c r="E35" s="5" t="inlineStr">
-        <is>
-          <t>Lubog Primary School</t>
-        </is>
-      </c>
-      <c r="F35" s="5" t="inlineStr">
-        <is>
-          <t>TIGBAUAN</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1st </t>
-        </is>
-      </c>
-      <c r="H35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
-        </is>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>19802964.97</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>12634605.87</v>
-      </c>
-      <c r="M35" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O35" s="6" t="n">
-        <v>45940</v>
-      </c>
-      <c r="P35" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q35" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
-        </is>
-      </c>
-      <c r="R35" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
-        </is>
-      </c>
-      <c r="S35" s="6" t="n">
-        <v>45511</v>
-      </c>
-      <c r="T35" s="6" t="n">
-        <v>45518</v>
-      </c>
-      <c r="U35" s="6" t="n">
-        <v>45534</v>
-      </c>
-      <c r="V35" s="6" t="n">
-        <v>45548</v>
-      </c>
-      <c r="W35" s="6" t="n">
-        <v>45700</v>
-      </c>
-      <c r="X35" s="5" t="inlineStr">
-        <is>
-          <t>EC Builders</t>
-        </is>
-      </c>
-      <c r="Y35" s="5" t="inlineStr">
-        <is>
-          <t>ongoing</t>
-        </is>
-      </c>
-      <c r="Z35" s="7" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="n">
-        <v>115973</v>
-      </c>
-      <c r="E36" s="5" t="inlineStr">
-        <is>
-          <t>Aglay-ao Primary School</t>
-        </is>
-      </c>
-      <c r="F36" s="5" t="inlineStr">
-        <is>
-          <t>ANILAO</t>
-        </is>
-      </c>
-      <c r="G36" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4th </t>
-        </is>
-      </c>
-      <c r="H36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J36" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
-        </is>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>19802964.97</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>14058943.18</v>
-      </c>
-      <c r="M36" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O36" s="6" t="n">
-        <v>45751</v>
-      </c>
-      <c r="P36" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q36" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
-        </is>
-      </c>
-      <c r="R36" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
-        </is>
-      </c>
-      <c r="S36" s="6" t="n">
-        <v>45476</v>
-      </c>
-      <c r="T36" s="6" t="n">
-        <v>45483</v>
-      </c>
-      <c r="U36" s="6" t="n">
-        <v>45495</v>
-      </c>
-      <c r="V36" s="6" t="n">
-        <v>45649</v>
-      </c>
-      <c r="W36" s="6" t="n">
-        <v>45715</v>
-      </c>
-      <c r="X36" s="5" t="inlineStr">
-        <is>
-          <t>CDJ Builders Corporation</t>
-        </is>
-      </c>
-      <c r="Y36" s="5" t="inlineStr">
-        <is>
-          <t>ongoing</t>
-        </is>
-      </c>
-      <c r="Z36" s="7" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>116064</v>
-      </c>
-      <c r="E37" s="5" t="inlineStr">
-        <is>
-          <t>California PS</t>
-        </is>
-      </c>
-      <c r="F37" s="5" t="inlineStr">
-        <is>
-          <t>BAROTAC VIEJO</t>
-        </is>
-      </c>
-      <c r="G37" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5th </t>
-        </is>
-      </c>
-      <c r="H37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>19802964.97</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>13610045.75</v>
-      </c>
-      <c r="M37" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O37" s="6" t="n">
-        <v>45751</v>
-      </c>
-      <c r="P37" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q37" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
-        </is>
-      </c>
-      <c r="R37" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
-        </is>
-      </c>
-      <c r="S37" s="6" t="n">
-        <v>45476</v>
-      </c>
-      <c r="T37" s="6" t="n">
-        <v>45483</v>
-      </c>
-      <c r="U37" s="6" t="n">
-        <v>45495</v>
-      </c>
-      <c r="V37" s="6" t="n">
-        <v>45649</v>
-      </c>
-      <c r="W37" s="6" t="n">
-        <v>45715</v>
-      </c>
-      <c r="X37" s="5" t="inlineStr">
-        <is>
-          <t>CDJ Builders Corporation</t>
-        </is>
-      </c>
-      <c r="Y37" s="5" t="inlineStr">
-        <is>
-          <t>with NTP</t>
-        </is>
-      </c>
-      <c r="Z37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>Negros Occidental</t>
-        </is>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>117026</v>
-      </c>
-      <c r="E38" s="5" t="inlineStr">
-        <is>
-          <t>Gahit ES</t>
-        </is>
-      </c>
-      <c r="F38" s="5" t="inlineStr">
-        <is>
-          <t>ENRIQUE B. MAGALONA (SARAVIA)</t>
-        </is>
-      </c>
-      <c r="G38" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3rd </t>
-        </is>
-      </c>
-      <c r="H38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONSTRUCTION OF 1STY3CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
-        </is>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>11351550.98</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>11139555.27</v>
-      </c>
-      <c r="M38" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O38" s="6" t="n">
-        <v>45719</v>
-      </c>
-      <c r="P38" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q38" s="5" t="inlineStr">
-        <is>
-          <t>23-11-29</t>
-        </is>
-      </c>
-      <c r="R38" s="5" t="inlineStr">
-        <is>
-          <t>24-09-005</t>
-        </is>
-      </c>
-      <c r="S38" s="6" t="n">
-        <v>45250</v>
-      </c>
-      <c r="T38" s="6" t="n">
-        <v>45257</v>
-      </c>
-      <c r="U38" s="6" t="n">
-        <v>45271</v>
-      </c>
-      <c r="V38" s="6" t="n">
-        <v>45499</v>
-      </c>
-      <c r="W38" s="6" t="n">
-        <v>45552</v>
-      </c>
-      <c r="X38" s="5" t="inlineStr">
-        <is>
-          <t>KEANNE CONSTRUCTION SERVICES</t>
-        </is>
-      </c>
-      <c r="Y38" s="5" t="inlineStr">
-        <is>
-          <t>on-going</t>
-        </is>
-      </c>
-      <c r="Z38" s="7" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>Negros Occidental</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>117262</v>
-      </c>
-      <c r="E39" s="5" t="inlineStr">
-        <is>
-          <t>E. Basa ES</t>
-        </is>
-      </c>
-      <c r="F39" s="5" t="inlineStr">
-        <is>
-          <t>MOISES PADILLA (MAGALLON)</t>
-        </is>
-      </c>
-      <c r="G39" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5th </t>
-        </is>
-      </c>
-      <c r="H39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONSTRUCTION OF 1STY3CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
-        </is>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>11351550.98</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>9895300.9</v>
-      </c>
-      <c r="M39" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O39" s="6" t="n">
-        <v>45703</v>
-      </c>
-      <c r="P39" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q39" s="5" t="inlineStr">
-        <is>
-          <t>23-11-29</t>
-        </is>
-      </c>
-      <c r="R39" s="5" t="inlineStr">
-        <is>
-          <t>24-09-003</t>
-        </is>
-      </c>
-      <c r="S39" s="6" t="n">
-        <v>45250</v>
-      </c>
-      <c r="T39" s="6" t="n">
-        <v>45257</v>
-      </c>
-      <c r="U39" s="6" t="n">
-        <v>45271</v>
-      </c>
-      <c r="V39" s="6" t="n">
-        <v>45499</v>
-      </c>
-      <c r="W39" s="6" t="n">
-        <v>45539</v>
-      </c>
-      <c r="X39" s="5" t="inlineStr">
-        <is>
-          <t>CGGFR Construction and Construction Supply</t>
-        </is>
-      </c>
-      <c r="Y39" s="5" t="inlineStr">
-        <is>
-          <t>on-going</t>
-        </is>
-      </c>
-      <c r="Z39" s="7" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>Negros Occidental</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>180510</v>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>Montelo ES</t>
-        </is>
-      </c>
-      <c r="F40" s="5" t="inlineStr">
-        <is>
-          <t>ILOG</t>
-        </is>
-      </c>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6th </t>
-        </is>
-      </c>
-      <c r="H40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONSTRUCTION OF 1STY3CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
-        </is>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>11351550.98</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>11222892.59</v>
-      </c>
-      <c r="M40" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O40" s="6" t="n">
-        <v>45719</v>
-      </c>
-      <c r="P40" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q40" s="5" t="inlineStr">
-        <is>
-          <t>23-11-004</t>
-        </is>
-      </c>
-      <c r="R40" s="5" t="inlineStr">
-        <is>
-          <t>24-09-004</t>
-        </is>
-      </c>
-      <c r="S40" s="6" t="n">
-        <v>45250</v>
-      </c>
-      <c r="T40" s="6" t="n">
-        <v>45257</v>
-      </c>
-      <c r="U40" s="6" t="n">
-        <v>45271</v>
-      </c>
-      <c r="V40" s="6" t="n">
-        <v>45499</v>
-      </c>
-      <c r="W40" s="6" t="n">
-        <v>45555</v>
-      </c>
-      <c r="X40" s="5" t="inlineStr">
-        <is>
-          <t>Par Builders</t>
-        </is>
-      </c>
-      <c r="Y40" s="5" t="inlineStr">
-        <is>
-          <t>on-going</t>
-        </is>
-      </c>
-      <c r="Z40" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z40" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="Z2:Z34" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VI/Region VI_LMS.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -455,10 +455,10 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="39" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
@@ -477,7 +477,7 @@
     <col width="33" customWidth="1" min="22" max="22"/>
     <col width="31" customWidth="1" min="23" max="23"/>
     <col width="55" customWidth="1" min="24" max="24"/>
-    <col width="170" customWidth="1" min="25" max="25"/>
+    <col width="120" customWidth="1" min="25" max="25"/>
     <col width="28" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
@@ -1801,7 +1801,7 @@
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>LMS 2021</t>
+          <t>LMS 2022</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
@@ -1811,98 +1811,88 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Kabankalan City</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>117891</v>
+        <v>114710</v>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Sagumayon PS</t>
+          <t>TABUNGYAN ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>Kabankalan City</t>
+          <t>BURUANGA</t>
         </is>
       </c>
       <c r="G13" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
       <c r="K13" s="5" t="n">
-        <v>24548206.13</v>
+        <v>19158007.74450023</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>0</v>
+        <v>18808160.79</v>
       </c>
       <c r="M13" s="5" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5" t="inlineStr">
-        <is>
-          <t>CO PROCURED</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>45261</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>45265</v>
+      </c>
+      <c r="Q13" s="5" t="inlineStr">
+        <is>
+          <t>INFRA 2023-05-002</t>
+        </is>
+      </c>
+      <c r="R13" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-001</t>
+        </is>
+      </c>
+      <c r="S13" s="6" t="n">
+        <v>45057</v>
+      </c>
+      <c r="T13" s="6" t="n">
+        <v>45065</v>
+      </c>
+      <c r="U13" s="6" t="n">
+        <v>45079</v>
+      </c>
+      <c r="V13" s="6" t="n">
+        <v>45110</v>
+      </c>
+      <c r="W13" s="6" t="n">
+        <v>45117</v>
+      </c>
+      <c r="X13" s="5" t="inlineStr">
+        <is>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="Z13" s="7" t="n"/>
     </row>
@@ -1923,16 +1913,16 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>114710</v>
+        <v>501181</v>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>TABUNGYAN ELEMENTARY SCHOOL</t>
+          <t>Vivo Integrated School</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>BURUANGA</t>
+          <t>Tangalan</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
@@ -1946,14 +1936,14 @@
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM</t>
+          <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM, PERIMETER FENCE  200 Meters </t>
         </is>
       </c>
       <c r="K14" s="5" t="n">
-        <v>19158007.74450023</v>
+        <v>19740374.52422607</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18808160.79</v>
+        <v>19000879.05</v>
       </c>
       <c r="M14" s="5" t="inlineStr">
         <is>
@@ -1966,8 +1956,10 @@
       <c r="O14" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P14" s="6" t="n">
-        <v>45265</v>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>November 24, 2023</t>
+        </is>
       </c>
       <c r="Q14" s="5" t="inlineStr">
         <is>
@@ -1976,7 +1968,7 @@
       </c>
       <c r="R14" s="5" t="inlineStr">
         <is>
-          <t>2023-07-001</t>
+          <t>2023-07-002</t>
         </is>
       </c>
       <c r="S14" s="6" t="n">
@@ -1992,11 +1984,11 @@
         <v>45110</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>45117</v>
+        <v>45113</v>
       </c>
       <c r="X14" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
       <c r="Y14" s="5" t="n">
@@ -2017,41 +2009,41 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>501181</v>
+        <v>114975</v>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>Vivo Integrated School</t>
+          <t>Buenavista ES</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>Tangalan</t>
+          <t>BELISON</t>
         </is>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J15" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM, PERIMETER FENCE  200 Meters </t>
+          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, AND REPAIR/REHABILITATION OF 7 CLASSROOMS</t>
         </is>
       </c>
       <c r="K15" s="5" t="n">
-        <v>19740374.52422607</v>
+        <v>21786950.50960388</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19000879.05</v>
+        <v>16550995.27</v>
       </c>
       <c r="M15" s="5" t="inlineStr">
         <is>
@@ -2064,43 +2056,43 @@
       <c r="O15" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>November 24, 2023</t>
-        </is>
+      <c r="P15" s="6" t="n">
+        <v>45481</v>
       </c>
       <c r="Q15" s="5" t="inlineStr">
         <is>
-          <t>INFRA 2023-05-002</t>
+          <t>R6-D2-2022BEFF-37-NC</t>
         </is>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
-          <t>2023-07-002</t>
+          <t>R6-D2-2022BEFF-37-NC</t>
         </is>
       </c>
       <c r="S15" s="6" t="n">
-        <v>45057</v>
+        <v>44890</v>
       </c>
       <c r="T15" s="6" t="n">
-        <v>45065</v>
+        <v>44897</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>45079</v>
+        <v>44904</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>45110</v>
+        <v>44916</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>45113</v>
+        <v>44916</v>
       </c>
       <c r="X15" s="5" t="inlineStr">
         <is>
-          <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
-        </is>
-      </c>
-      <c r="Y15" s="5" t="n">
-        <v>0</v>
+          <t>Nesmark Construction Enterprises</t>
+        </is>
+      </c>
+      <c r="Y15" s="5" t="inlineStr">
+        <is>
+          <t>Completed as per approved plans and variation order</t>
+        </is>
       </c>
       <c r="Z15" s="7" t="n"/>
     </row>
@@ -2121,16 +2113,16 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>114975</v>
+        <v>115129</v>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Buenavista ES</t>
+          <t>Igcagay PS</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>BELISON</t>
+          <t>LIBERTAD</t>
         </is>
       </c>
       <c r="G16" s="5" t="n">
@@ -2140,18 +2132,18 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J16" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, AND REPAIR/REHABILITATION OF 7 CLASSROOMS</t>
+          <t>CONSTRUCTION OF ONE(1) UNIT - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR AND REHABILITATION OF 2 CLASSROOMS</t>
         </is>
       </c>
       <c r="K16" s="5" t="n">
-        <v>21786950.50960388</v>
+        <v>15795342.76</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16550995.27</v>
+        <v>12901507.38</v>
       </c>
       <c r="M16" s="5" t="inlineStr">
         <is>
@@ -2164,37 +2156,41 @@
       <c r="O16" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P16" s="6" t="n">
-        <v>45481</v>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2024</t>
+        </is>
       </c>
       <c r="Q16" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-37-NC</t>
+          <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-37-NC</t>
+          <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
       <c r="S16" s="6" t="n">
-        <v>44890</v>
+        <v>45096</v>
       </c>
       <c r="T16" s="6" t="n">
-        <v>44897</v>
+        <v>45103</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>44904</v>
-      </c>
-      <c r="V16" s="6" t="n">
-        <v>44916</v>
+        <v>45110</v>
+      </c>
+      <c r="V16" s="5" t="inlineStr">
+        <is>
+          <t>Augut 17, 2023</t>
+        </is>
       </c>
       <c r="W16" s="6" t="n">
-        <v>44916</v>
+        <v>45167</v>
       </c>
       <c r="X16" s="5" t="inlineStr">
         <is>
-          <t>Nesmark Construction Enterprises</t>
+          <t>D' X-man Builders Corporation</t>
         </is>
       </c>
       <c r="Y16" s="5" t="inlineStr">
@@ -2217,20 +2213,20 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>115129</v>
+        <v>115853</v>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Igcagay PS</t>
+          <t>Miagos Primary School</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>LIBERTAD</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G17" s="5" t="n">
@@ -2240,18 +2236,18 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE(1) UNIT - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR AND REHABILITATION OF 2 CLASSROOMS</t>
+          <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,   AND WATER SYSTEM </t>
         </is>
       </c>
       <c r="K17" s="5" t="n">
-        <v>15795342.76</v>
+        <v>12611496.1788</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12901507.38</v>
+        <v>12298193.75</v>
       </c>
       <c r="M17" s="5" t="inlineStr">
         <is>
@@ -2264,47 +2260,41 @@
       <c r="O17" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P17" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2024</t>
-        </is>
+      <c r="P17" s="6" t="n">
+        <v>45192</v>
       </c>
       <c r="Q17" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-BEFF2023-11-NC</t>
+          <t>03-2022-lot 1</t>
         </is>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-BEFF2023-11-NC</t>
+          <t>No. 03-A-2022</t>
         </is>
       </c>
       <c r="S17" s="6" t="n">
-        <v>45096</v>
+        <v>44694</v>
       </c>
       <c r="T17" s="6" t="n">
-        <v>45103</v>
+        <v>44706</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>45110</v>
-      </c>
-      <c r="V17" s="5" t="inlineStr">
-        <is>
-          <t>Augut 17, 2023</t>
-        </is>
+        <v>44726</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>44743</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>45167</v>
+        <v>44830</v>
       </c>
       <c r="X17" s="5" t="inlineStr">
         <is>
-          <t>D' X-man Builders Corporation</t>
-        </is>
-      </c>
-      <c r="Y17" s="5" t="inlineStr">
-        <is>
-          <t>Completed as per approved plans and variation order</t>
-        </is>
+          <t>ARRIANNE MERCHANDISING AND CONSTRUCTION SERVICES, INC</t>
+        </is>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="Z17" s="7" t="n"/>
     </row>
@@ -2321,24 +2311,24 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>115853</v>
+        <v>116117</v>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Miagos Primary School</t>
+          <t>Tubod PS</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>BINGAWAN</t>
         </is>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
@@ -2348,14 +2338,14 @@
       </c>
       <c r="J18" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,   AND WATER SYSTEM </t>
+          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS 7x36 (MODIFIED STANDARD DPWH-DEPED) WITH TOILET EACH CLASSROOM, SOLAR PANEL @ WATER SUPPLY SYSTEM</t>
         </is>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12611496.1788</v>
+        <v>16950819.24</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12298193.75</v>
+        <v>13831624.51</v>
       </c>
       <c r="M18" s="5" t="inlineStr">
         <is>
@@ -2366,39 +2356,45 @@
         <v>1</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>45261</v>
+        <v>45388</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>45192</v>
+        <v>45511</v>
       </c>
       <c r="Q18" s="5" t="inlineStr">
         <is>
-          <t>03-2022-lot 1</t>
+          <t>BEFF2022-RVI-022-LMS-L1</t>
         </is>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
-          <t>No. 03-A-2022</t>
-        </is>
-      </c>
-      <c r="S18" s="6" t="n">
-        <v>44694</v>
-      </c>
-      <c r="T18" s="6" t="n">
-        <v>44706</v>
+          <t>BEFF2022-RVI-022-LMS-L1</t>
+        </is>
+      </c>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>17/04/2023</t>
+        </is>
+      </c>
+      <c r="T18" s="5" t="inlineStr">
+        <is>
+          <t>24/04/2023</t>
+        </is>
       </c>
       <c r="U18" s="6" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V18" s="6" t="n">
-        <v>44743</v>
+        <v>45143</v>
+      </c>
+      <c r="V18" s="5" t="inlineStr">
+        <is>
+          <t>29/06/2023</t>
+        </is>
       </c>
       <c r="W18" s="6" t="n">
-        <v>44830</v>
+        <v>44993</v>
       </c>
       <c r="X18" s="5" t="inlineStr">
         <is>
-          <t>ARRIANNE MERCHANDISING AND CONSTRUCTION SERVICES, INC</t>
+          <t>CDJ Builders Corporation</t>
         </is>
       </c>
       <c r="Y18" s="5" t="n">
@@ -2409,7 +2405,7 @@
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>LMS 2022</t>
+          <t>LMS 2023</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
@@ -2419,41 +2415,41 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>116117</v>
+        <v>114931</v>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Tubod PS</t>
+          <t>Lanipga Napatag Primary School</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>BINGAWAN</t>
+          <t>TANGALAN</t>
         </is>
       </c>
       <c r="G19" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS 7x36 (MODIFIED STANDARD DPWH-DEPED) WITH TOILET EACH CLASSROOM, SOLAR PANEL @ WATER SUPPLY SYSTEM</t>
+          <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K19" s="5" t="n">
-        <v>16950819.24</v>
+        <v>19969508.48</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13831624.51</v>
+        <v>16152092.89</v>
       </c>
       <c r="M19" s="5" t="inlineStr">
         <is>
@@ -2464,45 +2460,39 @@
         <v>1</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>45388</v>
+        <v>45291</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>45511</v>
+        <v>45476</v>
       </c>
       <c r="Q19" s="5" t="inlineStr">
         <is>
-          <t>BEFF2022-RVI-022-LMS-L1</t>
+          <t>DepED-RO6-D1-LMS2023-019-2023</t>
         </is>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
-          <t>BEFF2022-RVI-022-LMS-L1</t>
-        </is>
-      </c>
-      <c r="S19" s="5" t="inlineStr">
-        <is>
-          <t>17/04/2023</t>
-        </is>
-      </c>
-      <c r="T19" s="5" t="inlineStr">
-        <is>
-          <t>24/04/2023</t>
-        </is>
+          <t>DepED-RO6-D1-LMS2023-019-2023</t>
+        </is>
+      </c>
+      <c r="S19" s="6" t="n">
+        <v>45042</v>
+      </c>
+      <c r="T19" s="6" t="n">
+        <v>45049</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>45143</v>
-      </c>
-      <c r="V19" s="5" t="inlineStr">
-        <is>
-          <t>29/06/2023</t>
-        </is>
+        <v>45061</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>45096</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>44993</v>
+        <v>45104</v>
       </c>
       <c r="X19" s="5" t="inlineStr">
         <is>
-          <t>CDJ Builders Corporation</t>
+          <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
       <c r="Y19" s="5" t="n">
@@ -2523,24 +2513,24 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>114931</v>
+        <v>115139</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Lanipga Napatag Primary School</t>
+          <t>Tinindugan Primary School</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>TANGALAN</t>
+          <t>LIBERTAD</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>1</v>
@@ -2554,10 +2544,10 @@
         </is>
       </c>
       <c r="K20" s="5" t="n">
-        <v>19969508.48</v>
+        <v>17170000</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16152092.89</v>
+        <v>12901507.38</v>
       </c>
       <c r="M20" s="5" t="inlineStr">
         <is>
@@ -2568,43 +2558,45 @@
         <v>1</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>45291</v>
+        <v>45413</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>45476</v>
+        <v>45468</v>
       </c>
       <c r="Q20" s="5" t="inlineStr">
         <is>
-          <t>DepED-RO6-D1-LMS2023-019-2023</t>
+          <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
-          <t>DepED-RO6-D1-LMS2023-019-2023</t>
+          <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
       <c r="S20" s="6" t="n">
-        <v>45042</v>
+        <v>45089</v>
       </c>
       <c r="T20" s="6" t="n">
-        <v>45049</v>
+        <v>45096</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>45061</v>
+        <v>45110</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>45096</v>
+        <v>45187</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>45104</v>
+        <v>45258</v>
       </c>
       <c r="X20" s="5" t="inlineStr">
         <is>
-          <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
-        </is>
-      </c>
-      <c r="Y20" s="5" t="n">
-        <v>0</v>
+          <t>MJSb Builders and Supply</t>
+        </is>
+      </c>
+      <c r="Y20" s="5" t="inlineStr">
+        <is>
+          <t>Completed as per POW and VO</t>
+        </is>
       </c>
       <c r="Z20" s="7" t="n"/>
     </row>
@@ -2621,20 +2613,20 @@
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>115139</v>
+        <v>115859</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Tinindugan Primary School</t>
+          <t>Tangaw Primary School</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>LIBERTAD</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G21" s="5" t="n">
@@ -2644,18 +2636,18 @@
         <v>1</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) ROOFING, STEEL TRUSSES CONCRETE WORKS, MASONRY WORKS, ELECTRICAL WORKS, AND PLUMBINGWITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,   AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K21" s="5" t="n">
         <v>17170000</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12901507.38</v>
+        <v>12209995.28</v>
       </c>
       <c r="M21" s="5" t="inlineStr">
         <is>
@@ -2666,44 +2658,44 @@
         <v>1</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>45413</v>
+        <v>45310</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>45468</v>
+        <v>45366</v>
       </c>
       <c r="Q21" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-BEFF2023-11-NC</t>
+          <t>No. 03-2023</t>
         </is>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-BEFF2023-11-NC</t>
+          <t>No. 03-2023</t>
         </is>
       </c>
       <c r="S21" s="6" t="n">
-        <v>45089</v>
+        <v>45028</v>
       </c>
       <c r="T21" s="6" t="n">
-        <v>45096</v>
+        <v>45044</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>45110</v>
+        <v>45057</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>45187</v>
+        <v>45083</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>45258</v>
+        <v>45093</v>
       </c>
       <c r="X21" s="5" t="inlineStr">
         <is>
-          <t>MJSb Builders and Supply</t>
+          <t>Early Riser Construction</t>
         </is>
       </c>
       <c r="Y21" s="5" t="inlineStr">
         <is>
-          <t>Completed as per POW and VO</t>
+          <t>Completed with approved VO in the amount of  956,217.09</t>
         </is>
       </c>
       <c r="Z21" s="7" t="n"/>
@@ -2721,41 +2713,41 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>115859</v>
+        <v>116107</v>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Tangaw Primary School</t>
+          <t>Cairohan PS</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>BINGAWAN</t>
         </is>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) ROOFING, STEEL TRUSSES CONCRETE WORKS, MASONRY WORKS, ELECTRICAL WORKS, AND PLUMBINGWITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,   AND WATER SYSTEM</t>
+          <t>ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K22" s="5" t="n">
-        <v>17170000</v>
+        <v>18854193.63</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12209995.28</v>
+        <v>12144077.99</v>
       </c>
       <c r="M22" s="5" t="inlineStr">
         <is>
@@ -2766,45 +2758,43 @@
         <v>1</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>45310</v>
+        <v>45381</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>45366</v>
+        <v>45511</v>
       </c>
       <c r="Q22" s="5" t="inlineStr">
         <is>
-          <t>No. 03-2023</t>
+          <t>BEFF2023-RVI-022-LMS-L1</t>
         </is>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>No. 03-2023</t>
+          <t>BEFF2023-RVI-022-LMS-L1</t>
         </is>
       </c>
       <c r="S22" s="6" t="n">
-        <v>45028</v>
+        <v>45033</v>
       </c>
       <c r="T22" s="6" t="n">
-        <v>45044</v>
+        <v>45040</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>45057</v>
+        <v>45054</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>45083</v>
+        <v>45106</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>45093</v>
+        <v>45141</v>
       </c>
       <c r="X22" s="5" t="inlineStr">
         <is>
-          <t>Early Riser Construction</t>
-        </is>
-      </c>
-      <c r="Y22" s="5" t="inlineStr">
-        <is>
-          <t>Completed with approved VO in the amount of  956,217.09</t>
-        </is>
+          <t>CDJ Builders Corporation</t>
+        </is>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="Z22" s="7" t="n"/>
     </row>
@@ -2825,37 +2815,37 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>116107</v>
+        <v>116099</v>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>Cairohan PS</t>
+          <t>Malico PS</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>BINGAWAN</t>
+          <t>BATAD</t>
         </is>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" s="5" t="inlineStr">
         <is>
-          <t>ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY AND WATER SYSTEM</t>
+          <t>ONE (1) STOREY-FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K23" s="5" t="n">
-        <v>18854193.63</v>
+        <v>23471443.86</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12144077.99</v>
+        <v>15174823.71</v>
       </c>
       <c r="M23" s="5" t="inlineStr">
         <is>
@@ -2869,16 +2859,16 @@
         <v>45381</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>45511</v>
+        <v>45512</v>
       </c>
       <c r="Q23" s="5" t="inlineStr">
         <is>
-          <t>BEFF2023-RVI-022-LMS-L1</t>
+          <t>BEFF2023-RVI-022-LMS-L2</t>
         </is>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>BEFF2023-RVI-022-LMS-L1</t>
+          <t>BEFF2023-RVI-022-LMS-L2</t>
         </is>
       </c>
       <c r="S23" s="6" t="n">
@@ -2909,7 +2899,7 @@
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>LMS 2023</t>
+          <t>LMS 2024</t>
         </is>
       </c>
       <c r="B24" s="5" t="inlineStr">
@@ -2919,41 +2909,43 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>116099</v>
+        <v>114860</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>Malico PS</t>
+          <t>Cogon Elementary School</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>BATAD</t>
-        </is>
-      </c>
-      <c r="G24" s="5" t="n">
-        <v>5</v>
+          <t>MALINAO</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2nd </t>
+        </is>
       </c>
       <c r="H24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t>ONE (1) STOREY-FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY AND WATER SYSTEM</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K24" s="5" t="n">
-        <v>23471443.86</v>
+        <v>21223289.1</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15174823.71</v>
+        <v>20460400.84</v>
       </c>
       <c r="M24" s="5" t="inlineStr">
         <is>
@@ -2964,43 +2956,45 @@
         <v>1</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>45381</v>
+        <v>45688</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>45512</v>
+        <v>45702</v>
       </c>
       <c r="Q24" s="5" t="inlineStr">
         <is>
-          <t>BEFF2023-RVI-022-LMS-L2</t>
+          <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
         </is>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>BEFF2023-RVI-022-LMS-L2</t>
+          <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
         </is>
       </c>
       <c r="S24" s="6" t="n">
-        <v>45033</v>
+        <v>45244</v>
       </c>
       <c r="T24" s="6" t="n">
-        <v>45040</v>
+        <v>45251</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>45054</v>
+        <v>45264</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>45106</v>
+        <v>45310</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>45141</v>
+        <v>45441</v>
       </c>
       <c r="X24" s="5" t="inlineStr">
         <is>
-          <t>CDJ Builders Corporation</t>
-        </is>
-      </c>
-      <c r="Y24" s="5" t="n">
-        <v>0</v>
+          <t>GMO CONSTRUCTION</t>
+        </is>
+      </c>
+      <c r="Y24" s="5" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="Z24" s="7" t="n"/>
     </row>
@@ -3017,91 +3011,93 @@
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>114860</v>
+        <v>115268</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>Cogon Elementary School</t>
+          <t>Panpanan I ES</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>MALINAO</t>
+          <t>SAN REMIGIO</t>
         </is>
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2nd </t>
+          <t xml:space="preserve">Lone </t>
         </is>
       </c>
       <c r="H25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>PROPOSED CONSTRUCTION OF ONE(1) UNIT -  ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K25" s="5" t="n">
-        <v>21223289.1</v>
+        <v>17377521.03</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20460400.84</v>
+        <v>12162100.86</v>
       </c>
       <c r="M25" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="N25" s="5" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>45688</v>
-      </c>
-      <c r="P25" s="6" t="n">
-        <v>45702</v>
+        <v>45919</v>
+      </c>
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Q25" s="5" t="inlineStr">
         <is>
-          <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
+          <t>R6-D2-GAA2024-07-NC</t>
         </is>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
+          <t>R6-D2-GAA2024-07-NC</t>
         </is>
       </c>
       <c r="S25" s="6" t="n">
-        <v>45244</v>
+        <v>45317</v>
       </c>
       <c r="T25" s="6" t="n">
-        <v>45251</v>
+        <v>45324</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>45264</v>
+        <v>45338</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>45310</v>
+        <v>45387</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>45441</v>
+        <v>45492</v>
       </c>
       <c r="X25" s="5" t="inlineStr">
         <is>
-          <t>GMO CONSTRUCTION</t>
+          <t>MDG Const. &amp; Supply</t>
         </is>
       </c>
       <c r="Y25" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Already issued ressumption order last February 24, 2025</t>
         </is>
       </c>
       <c r="Z25" s="7" t="n"/>
@@ -3119,43 +3115,43 @@
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Capiz</t>
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>115268</v>
+        <v>500796</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Panpanan I ES</t>
+          <t>Duluan Integrated School</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>SAN REMIGIO</t>
+          <t>MA-AYON</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lone </t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE(1) UNIT -  ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K26" s="5" t="n">
-        <v>17377521.03</v>
+        <v>24242424.24</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12162100.86</v>
+        <v>14878415.3</v>
       </c>
       <c r="M26" s="5" t="inlineStr">
         <is>
@@ -3163,10 +3159,10 @@
         </is>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3</v>
+        <v>0.85</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>45919</v>
+        <v>45827</v>
       </c>
       <c r="P26" s="5" t="inlineStr">
         <is>
@@ -3175,37 +3171,37 @@
       </c>
       <c r="Q26" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-GAA2024-07-NC</t>
+          <t>R6-DepEd-Capiz-CY 2024-BEFF-DuluanIS-Lot1</t>
         </is>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-GAA2024-07-NC</t>
+          <t>CB No. 2024 - 032</t>
         </is>
       </c>
       <c r="S26" s="6" t="n">
-        <v>45317</v>
+        <v>45471</v>
       </c>
       <c r="T26" s="6" t="n">
-        <v>45324</v>
+        <v>45483</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>45338</v>
+        <v>45495</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>45387</v>
+        <v>45519</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>45492</v>
+        <v>45579</v>
       </c>
       <c r="X26" s="5" t="inlineStr">
         <is>
-          <t>MDG Const. &amp; Supply</t>
+          <t>AMD ENGINEERING AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
       <c r="Y26" s="5" t="inlineStr">
         <is>
-          <t>Already issued ressumption order last February 24, 2025</t>
+          <t>REQUESTED FOR 60 CD TIME EXTENSION. APPROVED LAST APRIL 2, 2025</t>
         </is>
       </c>
       <c r="Z26" s="7" t="n"/>
@@ -3223,43 +3219,43 @@
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>Cadiz City</t>
+          <t>Capiz</t>
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>117533</v>
+        <v>501439</v>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>Hiyang-Hiyang ES</t>
+          <t>Sinamongan Integrated School</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>CADIZ CITY</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2nd </t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF 1STY 5CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM with hauling cost</t>
+          <t>CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K27" s="5" t="n">
-        <v>16383838.38</v>
+        <v>21919191.92</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15997903.42</v>
+        <v>13454000</v>
       </c>
       <c r="M27" s="5" t="inlineStr">
         <is>
@@ -3267,45 +3263,49 @@
         </is>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>45723</v>
+        <v>45780</v>
       </c>
       <c r="P27" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="5" t="n">
-        <v>0</v>
+      <c r="Q27" s="5" t="inlineStr">
+        <is>
+          <t>R6-DepEd-Capiz-CY 2024-BEFF-SinamonganIS-Lot2</t>
+        </is>
+      </c>
+      <c r="R27" s="5" t="inlineStr">
+        <is>
+          <t>CB No. 2024 - 033</t>
+        </is>
       </c>
       <c r="S27" s="6" t="n">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="T27" s="6" t="n">
-        <v>45478</v>
+        <v>45483</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>45497</v>
+        <v>45495</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>45510</v>
+        <v>45519</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>45332</v>
+        <v>45590</v>
       </c>
       <c r="X27" s="5" t="inlineStr">
         <is>
-          <t>Keanne construction services</t>
+          <t>TUNGALA CONSTRUCTION SERVICES</t>
         </is>
       </c>
       <c r="Y27" s="5" t="inlineStr">
         <is>
-          <t>With approved 150CD time extension due to unpassable road (landslide/manual hauling/unpassable road) Project ID and Contract ID to be confirmed from the BAC Secretariat</t>
+          <t>SUBSTANTIALLY COMPLETED</t>
         </is>
       </c>
       <c r="Z27" s="7" t="n"/>
@@ -3323,25 +3323,25 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>Capiz</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>500796</v>
+        <v>115903</v>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>Duluan Integrated School</t>
+          <t>Paaralan ng Buhay ng Taras</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>MA-AYON</t>
+          <t>NUEVA VALENCIA</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t xml:space="preserve">Lone </t>
         </is>
       </c>
       <c r="H28" s="5" t="n">
@@ -3352,64 +3352,62 @@
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
       <c r="K28" s="5" t="n">
-        <v>24242424.24</v>
+        <v>17188760.85</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14878415.3</v>
+        <v>16914477.63</v>
       </c>
       <c r="M28" s="5" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>45827</v>
-      </c>
-      <c r="P28" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+        <v>45591</v>
+      </c>
+      <c r="P28" s="6" t="n">
+        <v>45653</v>
       </c>
       <c r="Q28" s="5" t="inlineStr">
         <is>
-          <t>R6-DepEd-Capiz-CY 2024-BEFF-DuluanIS-Lot1</t>
+          <t>No. 06-2024</t>
         </is>
       </c>
       <c r="R28" s="5" t="inlineStr">
         <is>
-          <t>CB No. 2024 - 032</t>
+          <t>No. 06-2024</t>
         </is>
       </c>
       <c r="S28" s="6" t="n">
-        <v>45471</v>
+        <v>45215</v>
       </c>
       <c r="T28" s="6" t="n">
-        <v>45483</v>
+        <v>45223</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>45495</v>
+        <v>45235</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>45519</v>
+        <v>45425</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>45579</v>
+        <v>45436</v>
       </c>
       <c r="X28" s="5" t="inlineStr">
         <is>
-          <t>AMD ENGINEERING AND CONSTRUCTION SUPPLY</t>
+          <t>Early Riser Construction</t>
         </is>
       </c>
       <c r="Y28" s="5" t="inlineStr">
         <is>
-          <t>REQUESTED FOR 60 CD TIME EXTENSION. APPROVED LAST APRIL 2, 2025</t>
+          <t>With approved time extension due to unworkable weather conditions &amp; change/increase of elevation</t>
         </is>
       </c>
       <c r="Z28" s="7" t="n"/>
@@ -3427,25 +3425,25 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>Capiz</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>501439</v>
+        <v>116833</v>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>Sinamongan Integrated School</t>
+          <t>Lubog Primary School</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>TIGBAUAN</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t xml:space="preserve">1st </t>
         </is>
       </c>
       <c r="H29" s="5" t="n">
@@ -3456,14 +3454,14 @@
       </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
       <c r="K29" s="5" t="n">
-        <v>21919191.92</v>
+        <v>19802964.97</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13454000</v>
+        <v>12634605.87</v>
       </c>
       <c r="M29" s="5" t="inlineStr">
         <is>
@@ -3471,10 +3469,10 @@
         </is>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>45780</v>
+        <v>45940</v>
       </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
@@ -3483,37 +3481,37 @@
       </c>
       <c r="Q29" s="5" t="inlineStr">
         <is>
-          <t>R6-DepEd-Capiz-CY 2024-BEFF-SinamonganIS-Lot2</t>
+          <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
         </is>
       </c>
       <c r="R29" s="5" t="inlineStr">
         <is>
-          <t>CB No. 2024 - 033</t>
+          <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
         </is>
       </c>
       <c r="S29" s="6" t="n">
-        <v>45471</v>
+        <v>45511</v>
       </c>
       <c r="T29" s="6" t="n">
-        <v>45483</v>
+        <v>45518</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>45495</v>
+        <v>45534</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>45519</v>
+        <v>45548</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>45590</v>
+        <v>45700</v>
       </c>
       <c r="X29" s="5" t="inlineStr">
         <is>
-          <t>TUNGALA CONSTRUCTION SERVICES</t>
+          <t>EC Builders</t>
         </is>
       </c>
       <c r="Y29" s="5" t="inlineStr">
         <is>
-          <t>SUBSTANTIALLY COMPLETED</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="Z29" s="7" t="n"/>
@@ -3531,25 +3529,25 @@
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>115903</v>
+        <v>115973</v>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>Paaralan ng Buhay ng Taras</t>
+          <t>Aglay-ao Primary School</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>NUEVA VALENCIA</t>
+          <t>ANILAO</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lone </t>
+          <t xml:space="preserve">4th </t>
         </is>
       </c>
       <c r="H30" s="5" t="n">
@@ -3560,62 +3558,64 @@
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
+          <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
       <c r="K30" s="5" t="n">
-        <v>17188760.85</v>
+        <v>19802964.97</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16914477.63</v>
+        <v>14058943.18</v>
       </c>
       <c r="M30" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="N30" s="5" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>45591</v>
-      </c>
-      <c r="P30" s="6" t="n">
-        <v>45653</v>
+        <v>45751</v>
+      </c>
+      <c r="P30" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Q30" s="5" t="inlineStr">
         <is>
-          <t>No. 06-2024</t>
+          <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
         </is>
       </c>
       <c r="R30" s="5" t="inlineStr">
         <is>
-          <t>No. 06-2024</t>
+          <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
         </is>
       </c>
       <c r="S30" s="6" t="n">
-        <v>45215</v>
+        <v>45476</v>
       </c>
       <c r="T30" s="6" t="n">
-        <v>45223</v>
+        <v>45483</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>45235</v>
+        <v>45495</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>45425</v>
+        <v>45649</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>45436</v>
+        <v>45715</v>
       </c>
       <c r="X30" s="5" t="inlineStr">
         <is>
-          <t>Early Riser Construction</t>
+          <t>CDJ Builders Corporation</t>
         </is>
       </c>
       <c r="Y30" s="5" t="inlineStr">
         <is>
-          <t>With approved time extension due to unworkable weather conditions &amp; change/increase of elevation</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="Z30" s="7" t="n"/>
@@ -3633,20 +3633,20 @@
       </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>Himamaylan City</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>117066</v>
+        <v>116064</v>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>Balatogan Elementary School</t>
+          <t>California PS</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>CITY OF HIMAMAYLAN</t>
+          <t>BAROTAC VIEJO</t>
         </is>
       </c>
       <c r="G31" s="5" t="inlineStr">
@@ -3658,18 +3658,18 @@
         <v>1</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
+          <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
       <c r="K31" s="5" t="n">
-        <v>17171717.17</v>
+        <v>19802964.97</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>16860289.87</v>
+        <v>13610045.75</v>
       </c>
       <c r="M31" s="5" t="inlineStr">
         <is>
@@ -3677,10 +3677,10 @@
         </is>
       </c>
       <c r="N31" s="5" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>45820</v>
+        <v>45751</v>
       </c>
       <c r="P31" s="5" t="inlineStr">
         <is>
@@ -3689,356 +3689,44 @@
       </c>
       <c r="Q31" s="5" t="inlineStr">
         <is>
-          <t>2024-10-0006</t>
+          <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
         </is>
       </c>
       <c r="R31" s="5" t="inlineStr">
         <is>
-          <t>2024-10-0006</t>
+          <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
         </is>
       </c>
       <c r="S31" s="6" t="n">
-        <v>45472</v>
+        <v>45476</v>
       </c>
       <c r="T31" s="6" t="n">
-        <v>45484</v>
+        <v>45483</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>45496</v>
+        <v>45495</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>45524</v>
+        <v>45649</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>45573</v>
+        <v>45715</v>
       </c>
       <c r="X31" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">JCORD Construction </t>
+          <t>CDJ Builders Corporation</t>
         </is>
       </c>
       <c r="Y31" s="5" t="inlineStr">
         <is>
-          <t>On going</t>
+          <t>with NTP</t>
         </is>
       </c>
       <c r="Z31" s="7" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>116833</v>
-      </c>
-      <c r="E32" s="5" t="inlineStr">
-        <is>
-          <t>Lubog Primary School</t>
-        </is>
-      </c>
-      <c r="F32" s="5" t="inlineStr">
-        <is>
-          <t>TIGBAUAN</t>
-        </is>
-      </c>
-      <c r="G32" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1st </t>
-        </is>
-      </c>
-      <c r="H32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J32" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
-        </is>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>19802964.97</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>12634605.87</v>
-      </c>
-      <c r="M32" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O32" s="6" t="n">
-        <v>45940</v>
-      </c>
-      <c r="P32" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q32" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
-        </is>
-      </c>
-      <c r="R32" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
-        </is>
-      </c>
-      <c r="S32" s="6" t="n">
-        <v>45511</v>
-      </c>
-      <c r="T32" s="6" t="n">
-        <v>45518</v>
-      </c>
-      <c r="U32" s="6" t="n">
-        <v>45534</v>
-      </c>
-      <c r="V32" s="6" t="n">
-        <v>45548</v>
-      </c>
-      <c r="W32" s="6" t="n">
-        <v>45700</v>
-      </c>
-      <c r="X32" s="5" t="inlineStr">
-        <is>
-          <t>EC Builders</t>
-        </is>
-      </c>
-      <c r="Y32" s="5" t="inlineStr">
-        <is>
-          <t>ongoing</t>
-        </is>
-      </c>
-      <c r="Z32" s="7" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>115973</v>
-      </c>
-      <c r="E33" s="5" t="inlineStr">
-        <is>
-          <t>Aglay-ao Primary School</t>
-        </is>
-      </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>ANILAO</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4th </t>
-        </is>
-      </c>
-      <c r="H33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
-        </is>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>19802964.97</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>14058943.18</v>
-      </c>
-      <c r="M33" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O33" s="6" t="n">
-        <v>45751</v>
-      </c>
-      <c r="P33" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q33" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
-        </is>
-      </c>
-      <c r="R33" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
-        </is>
-      </c>
-      <c r="S33" s="6" t="n">
-        <v>45476</v>
-      </c>
-      <c r="T33" s="6" t="n">
-        <v>45483</v>
-      </c>
-      <c r="U33" s="6" t="n">
-        <v>45495</v>
-      </c>
-      <c r="V33" s="6" t="n">
-        <v>45649</v>
-      </c>
-      <c r="W33" s="6" t="n">
-        <v>45715</v>
-      </c>
-      <c r="X33" s="5" t="inlineStr">
-        <is>
-          <t>CDJ Builders Corporation</t>
-        </is>
-      </c>
-      <c r="Y33" s="5" t="inlineStr">
-        <is>
-          <t>ongoing</t>
-        </is>
-      </c>
-      <c r="Z33" s="7" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>LMS 2024</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>116064</v>
-      </c>
-      <c r="E34" s="5" t="inlineStr">
-        <is>
-          <t>California PS</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>BAROTAC VIEJO</t>
-        </is>
-      </c>
-      <c r="G34" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5th </t>
-        </is>
-      </c>
-      <c r="H34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J34" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
-        </is>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>19802964.97</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>13610045.75</v>
-      </c>
-      <c r="M34" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O34" s="6" t="n">
-        <v>45751</v>
-      </c>
-      <c r="P34" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q34" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
-        </is>
-      </c>
-      <c r="R34" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
-        </is>
-      </c>
-      <c r="S34" s="6" t="n">
-        <v>45476</v>
-      </c>
-      <c r="T34" s="6" t="n">
-        <v>45483</v>
-      </c>
-      <c r="U34" s="6" t="n">
-        <v>45495</v>
-      </c>
-      <c r="V34" s="6" t="n">
-        <v>45649</v>
-      </c>
-      <c r="W34" s="6" t="n">
-        <v>45715</v>
-      </c>
-      <c r="X34" s="5" t="inlineStr">
-        <is>
-          <t>CDJ Builders Corporation</t>
-        </is>
-      </c>
-      <c r="Y34" s="5" t="inlineStr">
-        <is>
-          <t>with NTP</t>
-        </is>
-      </c>
-      <c r="Z34" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z34" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="Z2:Z31" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VI/Region VI_LMS.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,780 +453,799 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="39" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="251" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="39" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="251" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
     <col width="26" customWidth="1" min="15" max="15"/>
-    <col width="27" customWidth="1" min="16" max="16"/>
-    <col width="47" customWidth="1" min="17" max="17"/>
-    <col width="39" customWidth="1" min="18" max="18"/>
-    <col width="31" customWidth="1" min="19" max="19"/>
-    <col width="27" customWidth="1" min="20" max="20"/>
-    <col width="21" customWidth="1" min="21" max="21"/>
-    <col width="33" customWidth="1" min="22" max="22"/>
-    <col width="31" customWidth="1" min="23" max="23"/>
-    <col width="55" customWidth="1" min="24" max="24"/>
-    <col width="120" customWidth="1" min="25" max="25"/>
-    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="47" customWidth="1" min="18" max="18"/>
+    <col width="39" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="55" customWidth="1" min="25" max="25"/>
+    <col width="120" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>114985</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Caloy-ahan PS</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>Bugasong</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>23766742.20496984</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>19613104.9</v>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6" t="n">
         <v>44864</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="Q2" s="6" t="n">
         <v>45121</v>
       </c>
-      <c r="Q2" s="5" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2020BEFF-13-NC</t>
         </is>
       </c>
-      <c r="R2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2020BEFF-13-NC</t>
         </is>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="T2" s="6" t="n">
         <v>44389</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="U2" s="6" t="n">
         <v>44396</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="V2" s="6" t="n">
         <v>44410</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="W2" s="6" t="n">
         <v>44424</v>
       </c>
-      <c r="W2" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y2" s="5" t="inlineStr">
+        <is>
           <t>Nesmark Construction Enterprises</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>Nearly completion on finishing works, and delivery of school furnitures.</t>
         </is>
       </c>
-      <c r="Z2" s="7" t="n"/>
+      <c r="AA2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Capiz</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>115627</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Jamul-awon ES</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>PANAY</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>20180339.2794</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="M3" s="5" t="n">
         <v>13027738.3</v>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>April 19, 2022</t>
         </is>
       </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q3" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
           <t>R6-DepED-Capiz-CY2020-Last Mile School-Lot 2</t>
         </is>
       </c>
-      <c r="R3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="S3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>August 23, 2021</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>September 1, 2021</t>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>September 14, 2021</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>October 11, 2021</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>October 21, 2021</t>
         </is>
       </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>ORANGEKONSTRUCT CIVIL ENGINEERING SERVICES</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>Schedule of pre-procurement 8/17/2021</t>
         </is>
       </c>
-      <c r="Z3" s="7" t="n"/>
+      <c r="AA3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Capiz</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>310811</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>YATING NATIONAL HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>18733377.0103</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="M4" s="5" t="n">
         <v>11945444.38</v>
       </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>May 2, 2022</t>
         </is>
       </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
+        <is>
           <t>R6-DepED-Capiz-CY2020-Last Mile School-Lot 1</t>
         </is>
       </c>
-      <c r="R4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="S4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>August 23, 2021</t>
         </is>
       </c>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>September 1, 2021</t>
         </is>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>September 14, 2021</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>October 11, 2021</t>
         </is>
       </c>
-      <c r="W4" s="5" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>November 3, 2021</t>
         </is>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>GREATMAN BUILDERS</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>Schedule of pre-procurement 8/17/2021</t>
         </is>
       </c>
-      <c r="Z4" s="7" t="n"/>
+      <c r="AA4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>115914</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Panobolon ES</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Nueva Valencia</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>20808548.5734</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="M5" s="5" t="n">
         <v>20660439.7</v>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>March 27, 2022</t>
         </is>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="Q5" s="6" t="n">
         <v>44747</v>
       </c>
-      <c r="Q5" s="5" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>06-2021</t>
         </is>
       </c>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>06-2021</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>June 22, 2021</t>
         </is>
       </c>
-      <c r="T5" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>July 13, 2021</t>
         </is>
       </c>
-      <c r="U5" s="5" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>July 27, 2021</t>
         </is>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>August 8, 2021</t>
         </is>
       </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>August 24, 2021</t>
         </is>
       </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>EZ Gold Construction and Supply</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7" t="n"/>
+      <c r="Z5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>501244</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Barasalon Integrated School</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Janiuay I</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>20311610.08828702</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="M6" s="5" t="n">
         <v>17258671.73</v>
       </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6" t="n">
         <v>44618</v>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="Q6" s="6" t="n">
         <v>45632</v>
       </c>
-      <c r="Q6" s="5" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>LMS2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>LMS2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
-      <c r="S6" s="6" t="n">
+      <c r="T6" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="U6" s="6" t="n">
         <v>44410</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="V6" s="6" t="n">
         <v>44425</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="W6" s="6" t="n">
         <v>44446</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="X6" s="6" t="n">
         <v>44468</v>
       </c>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>NOE'S Builders</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> -as of Feb2024- Liquidated damages were imposed;
  -For Termination; low paced workmasnhip; Based on the actual ocular</t>
         </is>
       </c>
-      <c r="Z6" s="7" t="n"/>
+      <c r="AA6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>500544</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Mambuquiao Integrated School</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>BATAN</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>19683914.12</v>
       </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="M7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O7" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P7" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="n">
-        <v>0</v>
+      <c r="Q7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S7" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T7" s="5" t="inlineStr">
         <is>
@@ -1248,93 +1267,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED</t>
         </is>
       </c>
-      <c r="Z7" s="7" t="n"/>
+      <c r="AA7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>114804</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Bacyang PS</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>MADALAG</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>19567467.6</v>
       </c>
-      <c r="L8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O8" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q8" s="5" t="n">
-        <v>0</v>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S8" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T8" s="5" t="inlineStr">
         <is>
@@ -1356,93 +1378,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED</t>
         </is>
       </c>
-      <c r="Z8" s="7" t="n"/>
+      <c r="AA8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>178514</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Omlot PS (realigned from Tigunhao PS)</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>Laua-an</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>20850221.18</v>
       </c>
-      <c r="L9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="M9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O9" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q9" s="5" t="n">
-        <v>0</v>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S9" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T9" s="5" t="inlineStr">
         <is>
@@ -1464,93 +1489,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED. The school was re-aligned to Omlot PS</t>
         </is>
       </c>
-      <c r="Z9" s="7" t="n"/>
+      <c r="AA9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Capiz</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>115617</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Bantigue ES</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PANAY</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>20322685.02</v>
       </c>
-      <c r="L10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="M10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O10" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="P10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q10" s="5" t="n">
-        <v>0</v>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S10" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T10" s="5" t="inlineStr">
         <is>
@@ -1572,93 +1600,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED</t>
         </is>
       </c>
-      <c r="Z10" s="7" t="n"/>
+      <c r="AA10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>501248</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Adgao-Tagpuan-Ingay Integrated School</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>TUBUNGAN</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,  SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>17764390.36</v>
       </c>
-      <c r="L11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="M11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="O11" s="5" t="n">
         <v>0.98</v>
       </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q11" s="5" t="n">
-        <v>0</v>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S11" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T11" s="5" t="inlineStr">
         <is>
@@ -1680,93 +1711,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED; Rectification of Punchlist</t>
         </is>
       </c>
-      <c r="Z11" s="7" t="n"/>
+      <c r="AA11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>116180</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Caratagan PS</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>CALINOG</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>20557581.50383773</v>
       </c>
-      <c r="L12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5" t="inlineStr">
+      <c r="M12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O12" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="P12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q12" s="5" t="n">
-        <v>0</v>
+      <c r="Q12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S12" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T12" s="5" t="inlineStr">
         <is>
@@ -1788,1945 +1822,2007 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="5" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>CO PROCURED. NPA threats</t>
         </is>
       </c>
-      <c r="Z12" s="7" t="n"/>
+      <c r="AA12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>246</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>114710</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>TABUNGYAN ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>BURUANGA</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>19158007.74450023</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="M13" s="5" t="n">
         <v>18808160.79</v>
       </c>
-      <c r="M13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P13" s="6" t="n">
+      <c r="Q13" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="Q13" s="5" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R13" s="5" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>2023-07-001</t>
         </is>
       </c>
-      <c r="S13" s="6" t="n">
+      <c r="T13" s="6" t="n">
         <v>45057</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="U13" s="6" t="n">
         <v>45065</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="V13" s="6" t="n">
         <v>45079</v>
       </c>
-      <c r="V13" s="6" t="n">
+      <c r="W13" s="6" t="n">
         <v>45110</v>
       </c>
-      <c r="W13" s="6" t="n">
+      <c r="X13" s="6" t="n">
         <v>45117</v>
       </c>
-      <c r="X13" s="5" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Y13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="7" t="n"/>
+      <c r="Z13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>247</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>501181</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Vivo Integrated School</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Tangalan</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="H14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM, PERIMETER FENCE  200 Meters </t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>19740374.52422607</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="M14" s="5" t="n">
         <v>19000879.05</v>
       </c>
-      <c r="M14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P14" s="5" t="inlineStr">
+      <c r="Q14" s="5" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="Q14" s="5" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>2023-07-002</t>
         </is>
       </c>
-      <c r="S14" s="6" t="n">
+      <c r="T14" s="6" t="n">
         <v>45057</v>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="U14" s="6" t="n">
         <v>45065</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="V14" s="6" t="n">
         <v>45079</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="W14" s="6" t="n">
         <v>45110</v>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="X14" s="6" t="n">
         <v>45113</v>
       </c>
-      <c r="X14" s="5" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="Y14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="7" t="n"/>
+      <c r="Z14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>248</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>114975</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Buenavista ES</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>BELISON</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, AND REPAIR/REHABILITATION OF 7 CLASSROOMS</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>21786950.50960388</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="M15" s="5" t="n">
         <v>16550995.27</v>
       </c>
-      <c r="M15" s="5" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="Q15" s="6" t="n">
         <v>45481</v>
       </c>
-      <c r="Q15" s="5" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-37-NC</t>
         </is>
       </c>
-      <c r="R15" s="5" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-37-NC</t>
         </is>
       </c>
-      <c r="S15" s="6" t="n">
+      <c r="T15" s="6" t="n">
         <v>44890</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="U15" s="6" t="n">
         <v>44897</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="V15" s="6" t="n">
         <v>44904</v>
-      </c>
-      <c r="V15" s="6" t="n">
-        <v>44916</v>
       </c>
       <c r="W15" s="6" t="n">
         <v>44916</v>
       </c>
-      <c r="X15" s="5" t="inlineStr">
+      <c r="X15" s="6" t="n">
+        <v>44916</v>
+      </c>
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction Enterprises</t>
         </is>
       </c>
-      <c r="Y15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>Completed as per approved plans and variation order</t>
         </is>
       </c>
-      <c r="Z15" s="7" t="n"/>
+      <c r="AA15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>249</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>115129</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Igcagay PS</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>LIBERTAD</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE(1) UNIT - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR AND REHABILITATION OF 2 CLASSROOMS</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>15795342.76</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="M16" s="5" t="n">
         <v>12901507.38</v>
       </c>
-      <c r="M16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P16" s="5" t="inlineStr">
+      <c r="Q16" s="5" t="inlineStr">
         <is>
           <t>October 14, 2024</t>
         </is>
       </c>
-      <c r="Q16" s="5" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
-      <c r="S16" s="6" t="n">
+      <c r="T16" s="6" t="n">
         <v>45096</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="U16" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="V16" s="6" t="n">
         <v>45110</v>
       </c>
-      <c r="V16" s="5" t="inlineStr">
+      <c r="W16" s="5" t="inlineStr">
         <is>
           <t>Augut 17, 2023</t>
         </is>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="X16" s="6" t="n">
         <v>45167</v>
       </c>
-      <c r="X16" s="5" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>D' X-man Builders Corporation</t>
         </is>
       </c>
-      <c r="Y16" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>Completed as per approved plans and variation order</t>
         </is>
       </c>
-      <c r="Z16" s="7" t="n"/>
+      <c r="AA16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>250</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>115853</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Miagos Primary School</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,   AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>12611496.1788</v>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="M17" s="5" t="n">
         <v>12298193.75</v>
       </c>
-      <c r="M17" s="5" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="Q17" s="6" t="n">
         <v>45192</v>
       </c>
-      <c r="Q17" s="5" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>03-2022-lot 1</t>
         </is>
       </c>
-      <c r="R17" s="5" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>No. 03-A-2022</t>
         </is>
       </c>
-      <c r="S17" s="6" t="n">
+      <c r="T17" s="6" t="n">
         <v>44694</v>
       </c>
-      <c r="T17" s="6" t="n">
+      <c r="U17" s="6" t="n">
         <v>44706</v>
       </c>
-      <c r="U17" s="6" t="n">
+      <c r="V17" s="6" t="n">
         <v>44726</v>
       </c>
-      <c r="V17" s="6" t="n">
+      <c r="W17" s="6" t="n">
         <v>44743</v>
       </c>
-      <c r="W17" s="6" t="n">
+      <c r="X17" s="6" t="n">
         <v>44830</v>
       </c>
-      <c r="X17" s="5" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>ARRIANNE MERCHANDISING AND CONSTRUCTION SERVICES, INC</t>
         </is>
       </c>
-      <c r="Y17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="7" t="n"/>
+      <c r="Z17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>251</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>116117</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Tubod PS</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>BINGAWAN</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="H18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS 7x36 (MODIFIED STANDARD DPWH-DEPED) WITH TOILET EACH CLASSROOM, SOLAR PANEL @ WATER SUPPLY SYSTEM</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>16950819.24</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="M18" s="5" t="n">
         <v>13831624.51</v>
       </c>
-      <c r="M18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6" t="n">
         <v>45388</v>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="Q18" s="6" t="n">
         <v>45511</v>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-LMS-L1</t>
         </is>
       </c>
-      <c r="R18" s="5" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-LMS-L1</t>
         </is>
       </c>
-      <c r="S18" s="5" t="inlineStr">
+      <c r="T18" s="5" t="inlineStr">
         <is>
           <t>17/04/2023</t>
         </is>
       </c>
-      <c r="T18" s="5" t="inlineStr">
+      <c r="U18" s="5" t="inlineStr">
         <is>
           <t>24/04/2023</t>
         </is>
       </c>
-      <c r="U18" s="6" t="n">
+      <c r="V18" s="6" t="n">
         <v>45143</v>
       </c>
-      <c r="V18" s="5" t="inlineStr">
+      <c r="W18" s="5" t="inlineStr">
         <is>
           <t>29/06/2023</t>
         </is>
       </c>
-      <c r="W18" s="6" t="n">
+      <c r="X18" s="6" t="n">
         <v>44993</v>
       </c>
-      <c r="X18" s="5" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>CDJ Builders Corporation</t>
         </is>
       </c>
-      <c r="Y18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="7" t="n"/>
+      <c r="Z18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>334</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>114931</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Lanipga Napatag Primary School</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>TANGALAN</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="H19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>19969508.48</v>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="M19" s="5" t="n">
         <v>16152092.89</v>
       </c>
-      <c r="M19" s="5" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6" t="n">
         <v>45291</v>
       </c>
-      <c r="P19" s="6" t="n">
+      <c r="Q19" s="6" t="n">
         <v>45476</v>
       </c>
-      <c r="Q19" s="5" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>DepED-RO6-D1-LMS2023-019-2023</t>
         </is>
       </c>
-      <c r="R19" s="5" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>DepED-RO6-D1-LMS2023-019-2023</t>
         </is>
       </c>
-      <c r="S19" s="6" t="n">
+      <c r="T19" s="6" t="n">
         <v>45042</v>
       </c>
-      <c r="T19" s="6" t="n">
+      <c r="U19" s="6" t="n">
         <v>45049</v>
       </c>
-      <c r="U19" s="6" t="n">
+      <c r="V19" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="V19" s="6" t="n">
+      <c r="W19" s="6" t="n">
         <v>45096</v>
       </c>
-      <c r="W19" s="6" t="n">
+      <c r="X19" s="6" t="n">
         <v>45104</v>
       </c>
-      <c r="X19" s="5" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="Y19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="7" t="n"/>
+      <c r="Z19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>335</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>115139</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Tinindugan Primary School</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>LIBERTAD</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>17170000</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="M20" s="5" t="n">
         <v>12901507.38</v>
       </c>
-      <c r="M20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6" t="n">
         <v>45413</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="Q20" s="6" t="n">
         <v>45468</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
-      <c r="R20" s="5" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>R6-D2-BEFF2023-11-NC</t>
         </is>
       </c>
-      <c r="S20" s="6" t="n">
+      <c r="T20" s="6" t="n">
         <v>45089</v>
       </c>
-      <c r="T20" s="6" t="n">
+      <c r="U20" s="6" t="n">
         <v>45096</v>
       </c>
-      <c r="U20" s="6" t="n">
+      <c r="V20" s="6" t="n">
         <v>45110</v>
       </c>
-      <c r="V20" s="6" t="n">
+      <c r="W20" s="6" t="n">
         <v>45187</v>
       </c>
-      <c r="W20" s="6" t="n">
+      <c r="X20" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="X20" s="5" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>MJSb Builders and Supply</t>
         </is>
       </c>
-      <c r="Y20" s="5" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>Completed as per POW and VO</t>
         </is>
       </c>
-      <c r="Z20" s="7" t="n"/>
+      <c r="AA20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>336</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>115859</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Tangaw Primary School</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G21" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) ROOFING, STEEL TRUSSES CONCRETE WORKS, MASONRY WORKS, ELECTRICAL WORKS, AND PLUMBINGWITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,   AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>17170000</v>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="M21" s="5" t="n">
         <v>12209995.28</v>
       </c>
-      <c r="M21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6" t="n">
+      <c r="O21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6" t="n">
         <v>45310</v>
       </c>
-      <c r="P21" s="6" t="n">
+      <c r="Q21" s="6" t="n">
         <v>45366</v>
       </c>
-      <c r="Q21" s="5" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>No. 03-2023</t>
         </is>
       </c>
-      <c r="R21" s="5" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>No. 03-2023</t>
         </is>
       </c>
-      <c r="S21" s="6" t="n">
+      <c r="T21" s="6" t="n">
         <v>45028</v>
       </c>
-      <c r="T21" s="6" t="n">
+      <c r="U21" s="6" t="n">
         <v>45044</v>
       </c>
-      <c r="U21" s="6" t="n">
+      <c r="V21" s="6" t="n">
         <v>45057</v>
       </c>
-      <c r="V21" s="6" t="n">
+      <c r="W21" s="6" t="n">
         <v>45083</v>
       </c>
-      <c r="W21" s="6" t="n">
+      <c r="X21" s="6" t="n">
         <v>45093</v>
       </c>
-      <c r="X21" s="5" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="Y21" s="5" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>Completed with approved VO in the amount of  956,217.09</t>
         </is>
       </c>
-      <c r="Z21" s="7" t="n"/>
+      <c r="AA21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>337</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>116107</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Cairohan PS</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>BINGAWAN</t>
         </is>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="H22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>ONE (1) STOREY-TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>18854193.63</v>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="M22" s="5" t="n">
         <v>12144077.99</v>
       </c>
-      <c r="M22" s="5" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="6" t="n">
         <v>45381</v>
       </c>
-      <c r="P22" s="6" t="n">
+      <c r="Q22" s="6" t="n">
         <v>45511</v>
       </c>
-      <c r="Q22" s="5" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>BEFF2023-RVI-022-LMS-L1</t>
         </is>
       </c>
-      <c r="R22" s="5" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>BEFF2023-RVI-022-LMS-L1</t>
         </is>
       </c>
-      <c r="S22" s="6" t="n">
+      <c r="T22" s="6" t="n">
         <v>45033</v>
       </c>
-      <c r="T22" s="6" t="n">
+      <c r="U22" s="6" t="n">
         <v>45040</v>
       </c>
-      <c r="U22" s="6" t="n">
+      <c r="V22" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V22" s="6" t="n">
+      <c r="W22" s="6" t="n">
         <v>45106</v>
       </c>
-      <c r="W22" s="6" t="n">
+      <c r="X22" s="6" t="n">
         <v>45141</v>
       </c>
-      <c r="X22" s="5" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>CDJ Builders Corporation</t>
         </is>
       </c>
-      <c r="Y22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="7" t="n"/>
+      <c r="Z22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>338</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>116099</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Malico PS</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>BATAD</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="H23" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>ONE (1) STOREY-FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>23471443.86</v>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="M23" s="5" t="n">
         <v>15174823.71</v>
       </c>
-      <c r="M23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="6" t="n">
         <v>45381</v>
       </c>
-      <c r="P23" s="6" t="n">
+      <c r="Q23" s="6" t="n">
         <v>45512</v>
       </c>
-      <c r="Q23" s="5" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>BEFF2023-RVI-022-LMS-L2</t>
         </is>
       </c>
-      <c r="R23" s="5" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>BEFF2023-RVI-022-LMS-L2</t>
         </is>
       </c>
-      <c r="S23" s="6" t="n">
+      <c r="T23" s="6" t="n">
         <v>45033</v>
       </c>
-      <c r="T23" s="6" t="n">
+      <c r="U23" s="6" t="n">
         <v>45040</v>
       </c>
-      <c r="U23" s="6" t="n">
+      <c r="V23" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V23" s="6" t="n">
+      <c r="W23" s="6" t="n">
         <v>45106</v>
       </c>
-      <c r="W23" s="6" t="n">
+      <c r="X23" s="6" t="n">
         <v>45141</v>
       </c>
-      <c r="X23" s="5" t="inlineStr">
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>CDJ Builders Corporation</t>
         </is>
       </c>
-      <c r="Y23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="7" t="n"/>
+      <c r="Z23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>472</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>114860</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Cogon Elementary School</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>MALINAO</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>21223289.1</v>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="M24" s="5" t="n">
         <v>20460400.84</v>
       </c>
-      <c r="M24" s="5" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6" t="n">
+      <c r="O24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="n">
         <v>45688</v>
       </c>
-      <c r="P24" s="6" t="n">
+      <c r="Q24" s="6" t="n">
         <v>45702</v>
       </c>
-      <c r="Q24" s="5" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
         </is>
       </c>
-      <c r="R24" s="5" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>DepED-RO6-D1-2024-CY2024-LMS-056-2024</t>
         </is>
       </c>
-      <c r="S24" s="6" t="n">
+      <c r="T24" s="6" t="n">
         <v>45244</v>
       </c>
-      <c r="T24" s="6" t="n">
+      <c r="U24" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="U24" s="6" t="n">
+      <c r="V24" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="V24" s="6" t="n">
+      <c r="W24" s="6" t="n">
         <v>45310</v>
       </c>
-      <c r="W24" s="6" t="n">
+      <c r="X24" s="6" t="n">
         <v>45441</v>
       </c>
-      <c r="X24" s="5" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>GMO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y24" s="5" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z24" s="7" t="n"/>
+      <c r="AA24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>473</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>115268</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Panpanan I ES</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>SAN REMIGIO</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="H25" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE(1) UNIT -  ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>17377521.03</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="M25" s="5" t="n">
         <v>12162100.86</v>
       </c>
-      <c r="M25" s="5" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N25" s="5" t="n">
+      <c r="O25" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O25" s="6" t="n">
+      <c r="P25" s="6" t="n">
         <v>45919</v>
       </c>
-      <c r="P25" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q25" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr">
+        <is>
           <t>R6-D2-GAA2024-07-NC</t>
         </is>
       </c>
-      <c r="R25" s="5" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>R6-D2-GAA2024-07-NC</t>
         </is>
       </c>
-      <c r="S25" s="6" t="n">
+      <c r="T25" s="6" t="n">
         <v>45317</v>
       </c>
-      <c r="T25" s="6" t="n">
+      <c r="U25" s="6" t="n">
         <v>45324</v>
       </c>
-      <c r="U25" s="6" t="n">
+      <c r="V25" s="6" t="n">
         <v>45338</v>
       </c>
-      <c r="V25" s="6" t="n">
+      <c r="W25" s="6" t="n">
         <v>45387</v>
       </c>
-      <c r="W25" s="6" t="n">
+      <c r="X25" s="6" t="n">
         <v>45492</v>
       </c>
-      <c r="X25" s="5" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>MDG Const. &amp; Supply</t>
         </is>
       </c>
-      <c r="Y25" s="5" t="inlineStr">
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t>Already issued ressumption order last February 24, 2025</t>
         </is>
       </c>
-      <c r="Z25" s="7" t="n"/>
+      <c r="AA25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>475</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Capiz</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>500796</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Duluan Integrated School</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>MA-AYON</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>24242424.24</v>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="M26" s="5" t="n">
         <v>14878415.3</v>
       </c>
-      <c r="M26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N26" s="5" t="n">
+      <c r="O26" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="P26" s="6" t="n">
         <v>45827</v>
       </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q26" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R26" s="5" t="inlineStr">
+        <is>
           <t>R6-DepEd-Capiz-CY 2024-BEFF-DuluanIS-Lot1</t>
         </is>
       </c>
-      <c r="R26" s="5" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>CB No. 2024 - 032</t>
         </is>
       </c>
-      <c r="S26" s="6" t="n">
+      <c r="T26" s="6" t="n">
         <v>45471</v>
       </c>
-      <c r="T26" s="6" t="n">
+      <c r="U26" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="U26" s="6" t="n">
+      <c r="V26" s="6" t="n">
         <v>45495</v>
       </c>
-      <c r="V26" s="6" t="n">
+      <c r="W26" s="6" t="n">
         <v>45519</v>
       </c>
-      <c r="W26" s="6" t="n">
+      <c r="X26" s="6" t="n">
         <v>45579</v>
       </c>
-      <c r="X26" s="5" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>AMD ENGINEERING AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="Y26" s="5" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>REQUESTED FOR 60 CD TIME EXTENSION. APPROVED LAST APRIL 2, 2025</t>
         </is>
       </c>
-      <c r="Z26" s="7" t="n"/>
+      <c r="AA26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>476</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Capiz</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>501439</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Sinamongan Integrated School</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>21919191.92</v>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="M27" s="5" t="n">
         <v>13454000</v>
       </c>
-      <c r="M27" s="5" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N27" s="5" t="n">
+      <c r="O27" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="P27" s="6" t="n">
         <v>45780</v>
       </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q27" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="5" t="inlineStr">
+        <is>
           <t>R6-DepEd-Capiz-CY 2024-BEFF-SinamonganIS-Lot2</t>
         </is>
       </c>
-      <c r="R27" s="5" t="inlineStr">
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>CB No. 2024 - 033</t>
         </is>
       </c>
-      <c r="S27" s="6" t="n">
+      <c r="T27" s="6" t="n">
         <v>45471</v>
       </c>
-      <c r="T27" s="6" t="n">
+      <c r="U27" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="U27" s="6" t="n">
+      <c r="V27" s="6" t="n">
         <v>45495</v>
       </c>
-      <c r="V27" s="6" t="n">
+      <c r="W27" s="6" t="n">
         <v>45519</v>
       </c>
-      <c r="W27" s="6" t="n">
+      <c r="X27" s="6" t="n">
         <v>45590</v>
       </c>
-      <c r="X27" s="5" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>TUNGALA CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Y27" s="5" t="inlineStr">
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>SUBSTANTIALLY COMPLETED</t>
         </is>
       </c>
-      <c r="Z27" s="7" t="n"/>
+      <c r="AA27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>477</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>115903</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Paaralan ng Buhay ng Taras</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>NUEVA VALENCIA</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>17188760.85</v>
       </c>
-      <c r="L28" s="5" t="n">
+      <c r="M28" s="5" t="n">
         <v>16914477.63</v>
       </c>
-      <c r="M28" s="5" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="6" t="n">
         <v>45591</v>
       </c>
-      <c r="P28" s="6" t="n">
+      <c r="Q28" s="6" t="n">
         <v>45653</v>
       </c>
-      <c r="Q28" s="5" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>No. 06-2024</t>
         </is>
       </c>
-      <c r="R28" s="5" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>No. 06-2024</t>
         </is>
       </c>
-      <c r="S28" s="6" t="n">
+      <c r="T28" s="6" t="n">
         <v>45215</v>
       </c>
-      <c r="T28" s="6" t="n">
+      <c r="U28" s="6" t="n">
         <v>45223</v>
       </c>
-      <c r="U28" s="6" t="n">
+      <c r="V28" s="6" t="n">
         <v>45235</v>
       </c>
-      <c r="V28" s="6" t="n">
+      <c r="W28" s="6" t="n">
         <v>45425</v>
       </c>
-      <c r="W28" s="6" t="n">
+      <c r="X28" s="6" t="n">
         <v>45436</v>
       </c>
-      <c r="X28" s="5" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="Y28" s="5" t="inlineStr">
+      <c r="Z28" s="5" t="inlineStr">
         <is>
           <t>With approved time extension due to unworkable weather conditions &amp; change/increase of elevation</t>
         </is>
       </c>
-      <c r="Z28" s="7" t="n"/>
+      <c r="AA28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>479</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>116833</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Lubog Primary School</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>TIGBAUAN</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>19802964.97</v>
       </c>
-      <c r="L29" s="5" t="n">
+      <c r="M29" s="5" t="n">
         <v>12634605.87</v>
       </c>
-      <c r="M29" s="5" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N29" s="5" t="n">
+      <c r="O29" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="P29" s="6" t="n">
         <v>45940</v>
       </c>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q29" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R29" s="5" t="inlineStr">
+        <is>
           <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
         </is>
       </c>
-      <c r="R29" s="5" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-022-ILOILO-LMS-L3</t>
         </is>
       </c>
-      <c r="S29" s="6" t="n">
+      <c r="T29" s="6" t="n">
         <v>45511</v>
       </c>
-      <c r="T29" s="6" t="n">
+      <c r="U29" s="6" t="n">
         <v>45518</v>
       </c>
-      <c r="U29" s="6" t="n">
+      <c r="V29" s="6" t="n">
         <v>45534</v>
       </c>
-      <c r="V29" s="6" t="n">
+      <c r="W29" s="6" t="n">
         <v>45548</v>
       </c>
-      <c r="W29" s="6" t="n">
+      <c r="X29" s="6" t="n">
         <v>45700</v>
       </c>
-      <c r="X29" s="5" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>EC Builders</t>
         </is>
       </c>
-      <c r="Y29" s="5" t="inlineStr">
+      <c r="Z29" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="Z29" s="7" t="n"/>
+      <c r="AA29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>480</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>115973</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Aglay-ao Primary School</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>ANILAO</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">4th </t>
         </is>
       </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>19802964.97</v>
       </c>
-      <c r="L30" s="5" t="n">
+      <c r="M30" s="5" t="n">
         <v>14058943.18</v>
       </c>
-      <c r="M30" s="5" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N30" s="5" t="n">
+      <c r="O30" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="P30" s="6" t="n">
         <v>45751</v>
       </c>
-      <c r="P30" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q30" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R30" s="5" t="inlineStr">
+        <is>
           <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
         </is>
       </c>
-      <c r="R30" s="5" t="inlineStr">
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-022-ILOILO-LMS-L2</t>
         </is>
       </c>
-      <c r="S30" s="6" t="n">
+      <c r="T30" s="6" t="n">
         <v>45476</v>
       </c>
-      <c r="T30" s="6" t="n">
+      <c r="U30" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="U30" s="6" t="n">
+      <c r="V30" s="6" t="n">
         <v>45495</v>
       </c>
-      <c r="V30" s="6" t="n">
+      <c r="W30" s="6" t="n">
         <v>45649</v>
       </c>
-      <c r="W30" s="6" t="n">
+      <c r="X30" s="6" t="n">
         <v>45715</v>
       </c>
-      <c r="X30" s="5" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>CDJ Builders Corporation</t>
         </is>
       </c>
-      <c r="Y30" s="5" t="inlineStr">
+      <c r="Z30" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="Z30" s="7" t="n"/>
+      <c r="AA30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>481</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>116064</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>California PS</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>BAROTAC VIEJO</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">5th </t>
         </is>
       </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY 4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>19802964.97</v>
       </c>
-      <c r="L31" s="5" t="n">
+      <c r="M31" s="5" t="n">
         <v>13610045.75</v>
       </c>
-      <c r="M31" s="5" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N31" s="5" t="n">
+      <c r="O31" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="P31" s="6" t="n">
         <v>45751</v>
       </c>
-      <c r="P31" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q31" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R31" s="5" t="inlineStr">
+        <is>
           <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
         </is>
       </c>
-      <c r="R31" s="5" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-022-ILOILO-LMS-L1</t>
         </is>
       </c>
-      <c r="S31" s="6" t="n">
+      <c r="T31" s="6" t="n">
         <v>45476</v>
       </c>
-      <c r="T31" s="6" t="n">
+      <c r="U31" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="U31" s="6" t="n">
+      <c r="V31" s="6" t="n">
         <v>45495</v>
       </c>
-      <c r="V31" s="6" t="n">
+      <c r="W31" s="6" t="n">
         <v>45649</v>
       </c>
-      <c r="W31" s="6" t="n">
+      <c r="X31" s="6" t="n">
         <v>45715</v>
       </c>
-      <c r="X31" s="5" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>CDJ Builders Corporation</t>
         </is>
       </c>
-      <c r="Y31" s="5" t="inlineStr">
+      <c r="Z31" s="5" t="inlineStr">
         <is>
           <t>with NTP</t>
         </is>
       </c>
-      <c r="Z31" s="7" t="n"/>
+      <c r="AA31" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z31" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA31" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
